--- a/DGP6.xlsx
+++ b/DGP6.xlsx
@@ -422,7 +422,7 @@
         <v>0.908</v>
       </c>
       <c r="G2" t="n">
-        <v>0.925</v>
+        <v>0.9275</v>
       </c>
     </row>
     <row r="3">
@@ -442,10 +442,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.897</v>
+        <v>0.907</v>
       </c>
       <c r="G3" t="n">
-        <v>0.92</v>
+        <v>0.9265</v>
       </c>
     </row>
     <row r="4">
@@ -465,10 +465,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.893</v>
+        <v>0.903</v>
       </c>
       <c r="G4" t="n">
-        <v>0.914</v>
+        <v>0.9245</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.891</v>
+        <v>0.9</v>
       </c>
       <c r="G5" t="n">
-        <v>0.914</v>
+        <v>0.9225</v>
       </c>
     </row>
     <row r="6">
@@ -511,10 +511,10 @@
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.908</v>
+        <v>0.9005</v>
       </c>
       <c r="G6" t="n">
-        <v>0.928</v>
+        <v>0.9205</v>
       </c>
     </row>
     <row r="7">
@@ -534,10 +534,10 @@
         <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>0.891</v>
+        <v>0.8965</v>
       </c>
       <c r="G7" t="n">
-        <v>0.914</v>
+        <v>0.9175</v>
       </c>
     </row>
     <row r="8">
@@ -557,10 +557,10 @@
         <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>0.901</v>
+        <v>0.899</v>
       </c>
       <c r="G8" t="n">
-        <v>0.924</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="9">
@@ -580,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>0.904</v>
+        <v>0.8985</v>
       </c>
       <c r="G9" t="n">
-        <v>0.921</v>
+        <v>0.919</v>
       </c>
     </row>
     <row r="10">
@@ -603,10 +603,10 @@
         <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>0.902</v>
+        <v>0.9015</v>
       </c>
       <c r="G10" t="n">
-        <v>0.925</v>
+        <v>0.9205</v>
       </c>
     </row>
     <row r="11">
@@ -626,10 +626,10 @@
         <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>0.896</v>
+        <v>0.898</v>
       </c>
       <c r="G11" t="n">
-        <v>0.91</v>
+        <v>0.9175</v>
       </c>
     </row>
     <row r="12">
@@ -649,10 +649,10 @@
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>27.174470238178</v>
+        <v>26.9564780171063</v>
       </c>
       <c r="G12" t="n">
-        <v>26.6035176498972</v>
+        <v>26.3864994211114</v>
       </c>
     </row>
     <row r="13">
@@ -672,10 +672,10 @@
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>27.4594331103439</v>
+        <v>27.3509570462762</v>
       </c>
       <c r="G13" t="n">
-        <v>26.8439769867674</v>
+        <v>26.9312426364678</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>27.6326392927294</v>
+        <v>27.5524777053431</v>
       </c>
       <c r="G14" t="n">
-        <v>27.0927448094524</v>
+        <v>27.0028959765219</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>27.6692438175223</v>
+        <v>27.5482887436211</v>
       </c>
       <c r="G15" t="n">
-        <v>27.4090554445873</v>
+        <v>27.225808698082</v>
       </c>
     </row>
     <row r="16">
@@ -741,10 +741,10 @@
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>27.7130318809744</v>
+        <v>27.651221146701</v>
       </c>
       <c r="G16" t="n">
-        <v>27.4575540894875</v>
+        <v>27.3696907682783</v>
       </c>
     </row>
     <row r="17">
@@ -764,10 +764,10 @@
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>27.7014317803874</v>
+        <v>27.661752024719</v>
       </c>
       <c r="G17" t="n">
-        <v>27.3245861572426</v>
+        <v>27.2341157368733</v>
       </c>
     </row>
     <row r="18">
@@ -787,10 +787,10 @@
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>27.994860691478</v>
+        <v>27.6878243532228</v>
       </c>
       <c r="G18" t="n">
-        <v>27.7750113320731</v>
+        <v>27.3585010361425</v>
       </c>
     </row>
     <row r="19">
@@ -810,10 +810,10 @@
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>27.8466401418226</v>
+        <v>27.6446863179964</v>
       </c>
       <c r="G19" t="n">
-        <v>27.5326387270948</v>
+        <v>27.345188861611</v>
       </c>
     </row>
     <row r="20">
@@ -833,10 +833,10 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>28.0716684724984</v>
+        <v>27.8529560871818</v>
       </c>
       <c r="G20" t="n">
-        <v>27.8014277862858</v>
+        <v>27.4599997221482</v>
       </c>
     </row>
     <row r="21">
@@ -856,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>28.0322026937125</v>
+        <v>27.9692182030836</v>
       </c>
       <c r="G21" t="n">
-        <v>27.7789133288035</v>
+        <v>27.5286556557735</v>
       </c>
     </row>
     <row r="22">
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>50.1813875861818</v>
+        <v>48.6774901618697</v>
       </c>
       <c r="G22" t="n">
-        <v>34.7677550627605</v>
+        <v>32.6333363427745</v>
       </c>
     </row>
     <row r="23">
@@ -902,10 +902,10 @@
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>55.0316075120271</v>
+        <v>53.3637864118262</v>
       </c>
       <c r="G23" t="n">
-        <v>37.5810565754925</v>
+        <v>35.5121749761281</v>
       </c>
     </row>
     <row r="24">
@@ -925,10 +925,10 @@
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>60.7516604776621</v>
+        <v>56.2602298761038</v>
       </c>
       <c r="G24" t="n">
-        <v>39.7978071869452</v>
+        <v>37.7635218004049</v>
       </c>
     </row>
     <row r="25">
@@ -948,10 +948,10 @@
         <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>56.4627882333853</v>
+        <v>55.1062102833658</v>
       </c>
       <c r="G25" t="n">
-        <v>38.7015570821266</v>
+        <v>37.493435252302</v>
       </c>
     </row>
     <row r="26">
@@ -971,10 +971,10 @@
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>54.4565557387858</v>
+        <v>56.9099723529684</v>
       </c>
       <c r="G26" t="n">
-        <v>38.1975904964478</v>
+        <v>39.2763012187678</v>
       </c>
     </row>
     <row r="27">
@@ -994,10 +994,10 @@
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>58.4801342749001</v>
+        <v>58.2064755450063</v>
       </c>
       <c r="G27" t="n">
-        <v>39.9897998164935</v>
+        <v>40.3817016694332</v>
       </c>
     </row>
     <row r="28">
@@ -1017,10 +1017,10 @@
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>60.3108970985962</v>
+        <v>57.5200834608789</v>
       </c>
       <c r="G28" t="n">
-        <v>41.1768074098453</v>
+        <v>40.0490376175671</v>
       </c>
     </row>
     <row r="29">
@@ -1040,10 +1040,10 @@
         <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>66.3028708583523</v>
+        <v>62.1607083888708</v>
       </c>
       <c r="G29" t="n">
-        <v>46.4373233069541</v>
+        <v>43.9713892555737</v>
       </c>
     </row>
     <row r="30">
@@ -1063,10 +1063,10 @@
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>64.6198478425845</v>
+        <v>59.8868231010668</v>
       </c>
       <c r="G30" t="n">
-        <v>45.4555436522335</v>
+        <v>42.5577544879879</v>
       </c>
     </row>
     <row r="31">
@@ -1086,10 +1086,10 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>62.9811995897953</v>
+        <v>61.0511848903127</v>
       </c>
       <c r="G31" t="n">
-        <v>45.7807551283207</v>
+        <v>43.1964715867988</v>
       </c>
     </row>
     <row r="32">
@@ -1109,10 +1109,10 @@
         <v>11</v>
       </c>
       <c r="F32" t="n">
-        <v>4.30589713014445</v>
+        <v>4.23363042793528</v>
       </c>
       <c r="G32" t="n">
-        <v>3.32161825872811</v>
+        <v>3.2523361472484</v>
       </c>
     </row>
     <row r="33">
@@ -1132,10 +1132,10 @@
         <v>11</v>
       </c>
       <c r="F33" t="n">
-        <v>4.41815873894551</v>
+        <v>4.48557766319733</v>
       </c>
       <c r="G33" t="n">
-        <v>3.24100396327675</v>
+        <v>3.28923789320102</v>
       </c>
     </row>
     <row r="34">
@@ -1155,10 +1155,10 @@
         <v>11</v>
       </c>
       <c r="F34" t="n">
-        <v>4.60213583439666</v>
+        <v>4.5538270557731</v>
       </c>
       <c r="G34" t="n">
-        <v>3.420174684703</v>
+        <v>3.40523907584523</v>
       </c>
     </row>
     <row r="35">
@@ -1178,10 +1178,10 @@
         <v>11</v>
       </c>
       <c r="F35" t="n">
-        <v>4.72591097545722</v>
+        <v>4.61587434317175</v>
       </c>
       <c r="G35" t="n">
-        <v>3.44958259969341</v>
+        <v>3.49436533985203</v>
       </c>
     </row>
     <row r="36">
@@ -1201,10 +1201,10 @@
         <v>11</v>
       </c>
       <c r="F36" t="n">
-        <v>4.34055717904791</v>
+        <v>4.45843156471892</v>
       </c>
       <c r="G36" t="n">
-        <v>3.3485725285976</v>
+        <v>3.37390334066804</v>
       </c>
     </row>
     <row r="37">
@@ -1224,10 +1224,10 @@
         <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>4.82649353167528</v>
+        <v>4.81176474730525</v>
       </c>
       <c r="G37" t="n">
-        <v>3.68815785349542</v>
+        <v>3.654766606748</v>
       </c>
     </row>
     <row r="38">
@@ -1247,10 +1247,10 @@
         <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>4.57097398993426</v>
+        <v>4.55157958337778</v>
       </c>
       <c r="G38" t="n">
-        <v>3.45815139731887</v>
+        <v>3.42007661777333</v>
       </c>
     </row>
     <row r="39">
@@ -1270,10 +1270,10 @@
         <v>11</v>
       </c>
       <c r="F39" t="n">
-        <v>4.65348022138233</v>
+        <v>4.71965975171836</v>
       </c>
       <c r="G39" t="n">
-        <v>3.54947815100801</v>
+        <v>3.67264322965117</v>
       </c>
     </row>
     <row r="40">
@@ -1293,10 +1293,10 @@
         <v>11</v>
       </c>
       <c r="F40" t="n">
-        <v>4.52616177022337</v>
+        <v>4.4460401822689</v>
       </c>
       <c r="G40" t="n">
-        <v>3.53676625563784</v>
+        <v>3.50178461161558</v>
       </c>
     </row>
     <row r="41">
@@ -1316,10 +1316,10 @@
         <v>11</v>
       </c>
       <c r="F41" t="n">
-        <v>4.75311299608531</v>
+        <v>4.56195069308749</v>
       </c>
       <c r="G41" t="n">
-        <v>3.64729279240944</v>
+        <v>3.48057617402125</v>
       </c>
     </row>
     <row r="42">
@@ -1339,10 +1339,10 @@
         <v>8</v>
       </c>
       <c r="F42" t="n">
-        <v>0.936</v>
+        <v>0.9405</v>
       </c>
       <c r="G42" t="n">
-        <v>0.959</v>
+        <v>0.9655</v>
       </c>
     </row>
     <row r="43">
@@ -1362,10 +1362,10 @@
         <v>8</v>
       </c>
       <c r="F43" t="n">
-        <v>0.936</v>
+        <v>0.926</v>
       </c>
       <c r="G43" t="n">
-        <v>0.961</v>
+        <v>0.9555</v>
       </c>
     </row>
     <row r="44">
@@ -1385,10 +1385,10 @@
         <v>8</v>
       </c>
       <c r="F44" t="n">
-        <v>0.931</v>
+        <v>0.926</v>
       </c>
       <c r="G44" t="n">
-        <v>0.957</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="45">
@@ -1408,10 +1408,10 @@
         <v>8</v>
       </c>
       <c r="F45" t="n">
-        <v>0.925</v>
+        <v>0.917</v>
       </c>
       <c r="G45" t="n">
-        <v>0.952</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="46">
@@ -1431,10 +1431,10 @@
         <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>0.921</v>
+        <v>0.9315</v>
       </c>
       <c r="G46" t="n">
-        <v>0.951</v>
+        <v>0.9515</v>
       </c>
     </row>
     <row r="47">
@@ -1454,10 +1454,10 @@
         <v>8</v>
       </c>
       <c r="F47" t="n">
-        <v>0.921</v>
+        <v>0.9245</v>
       </c>
       <c r="G47" t="n">
-        <v>0.944</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="48">
@@ -1477,10 +1477,10 @@
         <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>0.934</v>
+        <v>0.9245</v>
       </c>
       <c r="G48" t="n">
-        <v>0.954</v>
+        <v>0.9595</v>
       </c>
     </row>
     <row r="49">
@@ -1500,10 +1500,10 @@
         <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>0.923</v>
+        <v>0.9275</v>
       </c>
       <c r="G49" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="50">
@@ -1523,10 +1523,10 @@
         <v>8</v>
       </c>
       <c r="F50" t="n">
-        <v>0.914</v>
+        <v>0.921</v>
       </c>
       <c r="G50" t="n">
-        <v>0.952</v>
+        <v>0.9515</v>
       </c>
     </row>
     <row r="51">
@@ -1546,10 +1546,10 @@
         <v>8</v>
       </c>
       <c r="F51" t="n">
-        <v>0.916</v>
+        <v>0.9145</v>
       </c>
       <c r="G51" t="n">
-        <v>0.94</v>
+        <v>0.9425</v>
       </c>
     </row>
     <row r="52">
@@ -1569,10 +1569,10 @@
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>25.7946042190129</v>
+        <v>26.4796081459242</v>
       </c>
       <c r="G52" t="n">
-        <v>24.644346166778</v>
+        <v>24.7074985465458</v>
       </c>
     </row>
     <row r="53">
@@ -1592,10 +1592,10 @@
         <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>26.1971552581362</v>
+        <v>26.3622315568582</v>
       </c>
       <c r="G53" t="n">
-        <v>25.0807101131052</v>
+        <v>24.8103423073686</v>
       </c>
     </row>
     <row r="54">
@@ -1615,10 +1615,10 @@
         <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>26.2632969976515</v>
+        <v>26.6031016985419</v>
       </c>
       <c r="G54" t="n">
-        <v>25.0553728704234</v>
+        <v>25.082718651021</v>
       </c>
     </row>
     <row r="55">
@@ -1638,10 +1638,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>26.4080511581814</v>
+        <v>26.557094953796</v>
       </c>
       <c r="G55" t="n">
-        <v>25.1936964759001</v>
+        <v>25.0087592035624</v>
       </c>
     </row>
     <row r="56">
@@ -1661,10 +1661,10 @@
         <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>26.4642884055092</v>
+        <v>26.7715885183827</v>
       </c>
       <c r="G56" t="n">
-        <v>24.869597015604</v>
+        <v>25.0871053569279</v>
       </c>
     </row>
     <row r="57">
@@ -1684,10 +1684,10 @@
         <v>9</v>
       </c>
       <c r="F57" t="n">
-        <v>26.0833105822639</v>
+        <v>26.8786143858572</v>
       </c>
       <c r="G57" t="n">
-        <v>24.8232584997538</v>
+        <v>25.2841266363191</v>
       </c>
     </row>
     <row r="58">
@@ -1707,10 +1707,10 @@
         <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>26.2098864870191</v>
+        <v>27.1309590111826</v>
       </c>
       <c r="G58" t="n">
-        <v>24.8545062631704</v>
+        <v>25.6905794825247</v>
       </c>
     </row>
     <row r="59">
@@ -1730,10 +1730,10 @@
         <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>26.2679214110245</v>
+        <v>26.8988354425658</v>
       </c>
       <c r="G59" t="n">
-        <v>25.2191801181189</v>
+        <v>25.492880178899</v>
       </c>
     </row>
     <row r="60">
@@ -1753,10 +1753,10 @@
         <v>9</v>
       </c>
       <c r="F60" t="n">
-        <v>26.4496322372445</v>
+        <v>26.8441738596466</v>
       </c>
       <c r="G60" t="n">
-        <v>25.2215378460856</v>
+        <v>25.4726239440018</v>
       </c>
     </row>
     <row r="61">
@@ -1776,10 +1776,10 @@
         <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>26.4077695312195</v>
+        <v>26.9131610312805</v>
       </c>
       <c r="G61" t="n">
-        <v>25.2547427102548</v>
+        <v>25.5510343765111</v>
       </c>
     </row>
     <row r="62">
@@ -1799,10 +1799,10 @@
         <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>38.7146706439057</v>
+        <v>40.8832575723589</v>
       </c>
       <c r="G62" t="n">
-        <v>21.9706251951842</v>
+        <v>22.1753824812933</v>
       </c>
     </row>
     <row r="63">
@@ -1822,10 +1822,10 @@
         <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>44.8556735791795</v>
+        <v>44.0881907595843</v>
       </c>
       <c r="G63" t="n">
-        <v>26.0548245358764</v>
+        <v>24.9054370960679</v>
       </c>
     </row>
     <row r="64">
@@ -1845,10 +1845,10 @@
         <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>44.6262709525418</v>
+        <v>46.1964062259574</v>
       </c>
       <c r="G64" t="n">
-        <v>25.0103439329726</v>
+        <v>26.0504246919515</v>
       </c>
     </row>
     <row r="65">
@@ -1868,10 +1868,10 @@
         <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>47.6651859958527</v>
+        <v>48.914178386846</v>
       </c>
       <c r="G65" t="n">
-        <v>27.1211788263885</v>
+        <v>28.2286969710836</v>
       </c>
     </row>
     <row r="66">
@@ -1891,10 +1891,10 @@
         <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>45.3869659142873</v>
+        <v>45.5915596446012</v>
       </c>
       <c r="G66" t="n">
-        <v>26.4363464974023</v>
+        <v>26.1120101892786</v>
       </c>
     </row>
     <row r="67">
@@ -1914,10 +1914,10 @@
         <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>49.9526230097792</v>
+        <v>48.3523752192568</v>
       </c>
       <c r="G67" t="n">
-        <v>29.8703482926807</v>
+        <v>27.2751323423836</v>
       </c>
     </row>
     <row r="68">
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>47.8800242694596</v>
+        <v>51.0606598105177</v>
       </c>
       <c r="G68" t="n">
-        <v>27.8003992813949</v>
+        <v>28.5462287428915</v>
       </c>
     </row>
     <row r="69">
@@ -1960,10 +1960,10 @@
         <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>49.8497135315137</v>
+        <v>52.578334927005</v>
       </c>
       <c r="G69" t="n">
-        <v>29.9265623485751</v>
+        <v>30.2773671592452</v>
       </c>
     </row>
     <row r="70">
@@ -1983,10 +1983,10 @@
         <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>50.9584606807142</v>
+        <v>51.769307238045</v>
       </c>
       <c r="G70" t="n">
-        <v>30.1159293589805</v>
+        <v>30.1757098094273</v>
       </c>
     </row>
     <row r="71">
@@ -2006,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>51.0436403130395</v>
+        <v>53.4481742591436</v>
       </c>
       <c r="G71" t="n">
-        <v>29.7122815599657</v>
+        <v>31.3056899982602</v>
       </c>
     </row>
     <row r="72">
@@ -2029,10 +2029,10 @@
         <v>11</v>
       </c>
       <c r="F72" t="n">
-        <v>4.07753600695713</v>
+        <v>4.15408181236459</v>
       </c>
       <c r="G72" t="n">
-        <v>2.92920691865003</v>
+        <v>2.88879856955255</v>
       </c>
     </row>
     <row r="73">
@@ -2052,10 +2052,10 @@
         <v>11</v>
       </c>
       <c r="F73" t="n">
-        <v>4.28844955020451</v>
+        <v>4.15130460915575</v>
       </c>
       <c r="G73" t="n">
-        <v>3.07832137986261</v>
+        <v>2.84421949669838</v>
       </c>
     </row>
     <row r="74">
@@ -2075,10 +2075,10 @@
         <v>11</v>
       </c>
       <c r="F74" t="n">
-        <v>4.39090275487228</v>
+        <v>4.37058237148265</v>
       </c>
       <c r="G74" t="n">
-        <v>2.95299258235151</v>
+        <v>3.03222463192374</v>
       </c>
     </row>
     <row r="75">
@@ -2098,10 +2098,10 @@
         <v>11</v>
       </c>
       <c r="F75" t="n">
-        <v>4.51266512407406</v>
+        <v>4.3813290208677</v>
       </c>
       <c r="G75" t="n">
-        <v>3.07103115170816</v>
+        <v>3.05717535379536</v>
       </c>
     </row>
     <row r="76">
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="F76" t="n">
-        <v>4.18343513188363</v>
+        <v>4.05061048470563</v>
       </c>
       <c r="G76" t="n">
-        <v>2.95454642793979</v>
+        <v>2.88542618649114</v>
       </c>
     </row>
     <row r="77">
@@ -2144,10 +2144,10 @@
         <v>11</v>
       </c>
       <c r="F77" t="n">
-        <v>4.34405933116441</v>
+        <v>4.285579839857</v>
       </c>
       <c r="G77" t="n">
-        <v>2.92484369533526</v>
+        <v>2.98683032507106</v>
       </c>
     </row>
     <row r="78">
@@ -2167,10 +2167,10 @@
         <v>11</v>
       </c>
       <c r="F78" t="n">
-        <v>4.29770850060143</v>
+        <v>4.51500675513618</v>
       </c>
       <c r="G78" t="n">
-        <v>3.01475791318019</v>
+        <v>3.06593254187115</v>
       </c>
     </row>
     <row r="79">
@@ -2190,10 +2190,10 @@
         <v>11</v>
       </c>
       <c r="F79" t="n">
-        <v>4.23930063961199</v>
+        <v>4.42814661577224</v>
       </c>
       <c r="G79" t="n">
-        <v>2.91538251364957</v>
+        <v>3.00998268590349</v>
       </c>
     </row>
     <row r="80">
@@ -2213,10 +2213,10 @@
         <v>11</v>
       </c>
       <c r="F80" t="n">
-        <v>4.34722989750019</v>
+        <v>4.28986112853437</v>
       </c>
       <c r="G80" t="n">
-        <v>2.85714661151336</v>
+        <v>3.07905599849594</v>
       </c>
     </row>
     <row r="81">
@@ -2236,10 +2236,10 @@
         <v>11</v>
       </c>
       <c r="F81" t="n">
-        <v>4.46229071666791</v>
+        <v>4.33676423419684</v>
       </c>
       <c r="G81" t="n">
-        <v>2.95844589017228</v>
+        <v>2.96597728846624</v>
       </c>
     </row>
     <row r="82">
@@ -2259,10 +2259,10 @@
         <v>8</v>
       </c>
       <c r="F82" t="n">
-        <v>0.92</v>
+        <v>0.9215</v>
       </c>
       <c r="G82" t="n">
-        <v>0.937</v>
+        <v>0.936</v>
       </c>
     </row>
     <row r="83">
@@ -2282,10 +2282,10 @@
         <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>0.924</v>
+        <v>0.918</v>
       </c>
       <c r="G83" t="n">
-        <v>0.932</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="84">
@@ -2305,10 +2305,10 @@
         <v>8</v>
       </c>
       <c r="F84" t="n">
-        <v>0.918</v>
+        <v>0.9175</v>
       </c>
       <c r="G84" t="n">
-        <v>0.934</v>
+        <v>0.935</v>
       </c>
     </row>
     <row r="85">
@@ -2328,10 +2328,10 @@
         <v>8</v>
       </c>
       <c r="F85" t="n">
-        <v>0.912</v>
+        <v>0.9075</v>
       </c>
       <c r="G85" t="n">
-        <v>0.934</v>
+        <v>0.9305</v>
       </c>
     </row>
     <row r="86">
@@ -2351,10 +2351,10 @@
         <v>8</v>
       </c>
       <c r="F86" t="n">
-        <v>0.911</v>
+        <v>0.8955</v>
       </c>
       <c r="G86" t="n">
-        <v>0.922</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="87">
@@ -2374,10 +2374,10 @@
         <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>0.898</v>
+        <v>0.9065</v>
       </c>
       <c r="G87" t="n">
-        <v>0.919</v>
+        <v>0.931</v>
       </c>
     </row>
     <row r="88">
@@ -2400,7 +2400,7 @@
         <v>0.895</v>
       </c>
       <c r="G88" t="n">
-        <v>0.909</v>
+        <v>0.913</v>
       </c>
     </row>
     <row r="89">
@@ -2420,10 +2420,10 @@
         <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9</v>
+        <v>0.894</v>
       </c>
       <c r="G89" t="n">
-        <v>0.921</v>
+        <v>0.9155</v>
       </c>
     </row>
     <row r="90">
@@ -2443,10 +2443,10 @@
         <v>8</v>
       </c>
       <c r="F90" t="n">
-        <v>0.904</v>
+        <v>0.8955</v>
       </c>
       <c r="G90" t="n">
-        <v>0.934</v>
+        <v>0.9225</v>
       </c>
     </row>
     <row r="91">
@@ -2466,10 +2466,10 @@
         <v>8</v>
       </c>
       <c r="F91" t="n">
-        <v>0.912</v>
+        <v>0.91</v>
       </c>
       <c r="G91" t="n">
-        <v>0.936</v>
+        <v>0.931</v>
       </c>
     </row>
     <row r="92">
@@ -2489,10 +2489,10 @@
         <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>26.7029601078199</v>
+        <v>26.5875791100696</v>
       </c>
       <c r="G92" t="n">
-        <v>26.7460206738121</v>
+        <v>26.5466609444065</v>
       </c>
     </row>
     <row r="93">
@@ -2512,10 +2512,10 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>27.3865498703588</v>
+        <v>26.9461519005013</v>
       </c>
       <c r="G93" t="n">
-        <v>27.4403137244617</v>
+        <v>27.2223507532685</v>
       </c>
     </row>
     <row r="94">
@@ -2535,10 +2535,10 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>27.4695238846042</v>
+        <v>27.2594316686827</v>
       </c>
       <c r="G94" t="n">
-        <v>27.7854035881934</v>
+        <v>27.4612634731239</v>
       </c>
     </row>
     <row r="95">
@@ -2558,10 +2558,10 @@
         <v>9</v>
       </c>
       <c r="F95" t="n">
-        <v>27.6417466957438</v>
+        <v>27.2738426098123</v>
       </c>
       <c r="G95" t="n">
-        <v>27.8474368526558</v>
+        <v>27.3866733711779</v>
       </c>
     </row>
     <row r="96">
@@ -2581,10 +2581,10 @@
         <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>27.7704342594975</v>
+        <v>27.4175053718953</v>
       </c>
       <c r="G96" t="n">
-        <v>27.6799626777573</v>
+        <v>27.4989084739291</v>
       </c>
     </row>
     <row r="97">
@@ -2604,10 +2604,10 @@
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>27.4009195670335</v>
+        <v>27.2451792851953</v>
       </c>
       <c r="G97" t="n">
-        <v>27.4968412808236</v>
+        <v>27.4456300761275</v>
       </c>
     </row>
     <row r="98">
@@ -2627,10 +2627,10 @@
         <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>27.3611070099524</v>
+        <v>27.2143335816923</v>
       </c>
       <c r="G98" t="n">
-        <v>27.5809874036867</v>
+        <v>27.5387094660287</v>
       </c>
     </row>
     <row r="99">
@@ -2650,10 +2650,10 @@
         <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>27.4447664202497</v>
+        <v>27.2416926330227</v>
       </c>
       <c r="G99" t="n">
-        <v>27.4178935595144</v>
+        <v>27.4126785057399</v>
       </c>
     </row>
     <row r="100">
@@ -2673,10 +2673,10 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>27.547104168327</v>
+        <v>27.4035290326466</v>
       </c>
       <c r="G100" t="n">
-        <v>27.8636854425765</v>
+        <v>27.5332711981919</v>
       </c>
     </row>
     <row r="101">
@@ -2696,10 +2696,10 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>27.4746175845997</v>
+        <v>27.3703279772035</v>
       </c>
       <c r="G101" t="n">
-        <v>27.9128369509168</v>
+        <v>27.7876167653705</v>
       </c>
     </row>
     <row r="102">
@@ -2719,10 +2719,10 @@
         <v>10</v>
       </c>
       <c r="F102" t="n">
-        <v>42.1398033974079</v>
+        <v>40.9255038814576</v>
       </c>
       <c r="G102" t="n">
-        <v>29.771564198062</v>
+        <v>29.7715626682769</v>
       </c>
     </row>
     <row r="103">
@@ -2742,10 +2742,10 @@
         <v>10</v>
       </c>
       <c r="F103" t="n">
-        <v>48.5545348492766</v>
+        <v>48.4218037719489</v>
       </c>
       <c r="G103" t="n">
-        <v>35.2396832104343</v>
+        <v>35.7949992597305</v>
       </c>
     </row>
     <row r="104">
@@ -2765,10 +2765,10 @@
         <v>10</v>
       </c>
       <c r="F104" t="n">
-        <v>49.2302850622807</v>
+        <v>50.6306522966136</v>
       </c>
       <c r="G104" t="n">
-        <v>35.8914306257462</v>
+        <v>37.3629528063696</v>
       </c>
     </row>
     <row r="105">
@@ -2788,10 +2788,10 @@
         <v>10</v>
       </c>
       <c r="F105" t="n">
-        <v>54.0387272281413</v>
+        <v>53.5945160082019</v>
       </c>
       <c r="G105" t="n">
-        <v>39.2441941829442</v>
+        <v>39.0820828532485</v>
       </c>
     </row>
     <row r="106">
@@ -2811,10 +2811,10 @@
         <v>10</v>
       </c>
       <c r="F106" t="n">
-        <v>54.9845291944639</v>
+        <v>55.3387751871621</v>
       </c>
       <c r="G106" t="n">
-        <v>40.1087905990802</v>
+        <v>41.1188803210414</v>
       </c>
     </row>
     <row r="107">
@@ -2834,10 +2834,10 @@
         <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>53.5094715525766</v>
+        <v>53.0700070400341</v>
       </c>
       <c r="G107" t="n">
-        <v>39.7403259397361</v>
+        <v>38.7778840908497</v>
       </c>
     </row>
     <row r="108">
@@ -2857,10 +2857,10 @@
         <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>57.1564348243956</v>
+        <v>56.839770563331</v>
       </c>
       <c r="G108" t="n">
-        <v>44.0528585230216</v>
+        <v>43.5690677972173</v>
       </c>
     </row>
     <row r="109">
@@ -2880,10 +2880,10 @@
         <v>10</v>
       </c>
       <c r="F109" t="n">
-        <v>55.8045463399366</v>
+        <v>58.1699843653861</v>
       </c>
       <c r="G109" t="n">
-        <v>40.600368177117</v>
+        <v>42.1094372715495</v>
       </c>
     </row>
     <row r="110">
@@ -2903,10 +2903,10 @@
         <v>10</v>
       </c>
       <c r="F110" t="n">
-        <v>60.5509939912495</v>
+        <v>60.4523759650269</v>
       </c>
       <c r="G110" t="n">
-        <v>43.9583180944327</v>
+        <v>44.9103001986965</v>
       </c>
     </row>
     <row r="111">
@@ -2926,10 +2926,10 @@
         <v>10</v>
       </c>
       <c r="F111" t="n">
-        <v>59.1940219782497</v>
+        <v>58.7202342327593</v>
       </c>
       <c r="G111" t="n">
-        <v>43.0551497871734</v>
+        <v>43.6764666385152</v>
       </c>
     </row>
     <row r="112">
@@ -2949,10 +2949,10 @@
         <v>11</v>
       </c>
       <c r="F112" t="n">
-        <v>4.07275214126649</v>
+        <v>4.02348557319245</v>
       </c>
       <c r="G112" t="n">
-        <v>3.34522230427452</v>
+        <v>3.30269904443887</v>
       </c>
     </row>
     <row r="113">
@@ -2972,10 +2972,10 @@
         <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>4.38927468876223</v>
+        <v>4.39249919422357</v>
       </c>
       <c r="G113" t="n">
-        <v>3.56824387959115</v>
+        <v>3.52893831611786</v>
       </c>
     </row>
     <row r="114">
@@ -2995,10 +2995,10 @@
         <v>11</v>
       </c>
       <c r="F114" t="n">
-        <v>4.44400151135626</v>
+        <v>4.33715471676646</v>
       </c>
       <c r="G114" t="n">
-        <v>3.67411981902526</v>
+        <v>3.62421171816889</v>
       </c>
     </row>
     <row r="115">
@@ -3018,10 +3018,10 @@
         <v>11</v>
       </c>
       <c r="F115" t="n">
-        <v>4.56567347364512</v>
+        <v>4.63370587097636</v>
       </c>
       <c r="G115" t="n">
-        <v>3.77146361983551</v>
+        <v>3.71067238229629</v>
       </c>
     </row>
     <row r="116">
@@ -3041,10 +3041,10 @@
         <v>11</v>
       </c>
       <c r="F116" t="n">
-        <v>4.44503149548095</v>
+        <v>4.67861187665809</v>
       </c>
       <c r="G116" t="n">
-        <v>3.46699854168096</v>
+        <v>3.62554443180461</v>
       </c>
     </row>
     <row r="117">
@@ -3064,10 +3064,10 @@
         <v>11</v>
       </c>
       <c r="F117" t="n">
-        <v>4.42635965628697</v>
+        <v>4.56791927258386</v>
       </c>
       <c r="G117" t="n">
-        <v>3.44687420109662</v>
+        <v>3.59807829868807</v>
       </c>
     </row>
     <row r="118">
@@ -3087,10 +3087,10 @@
         <v>11</v>
       </c>
       <c r="F118" t="n">
-        <v>4.84703527662411</v>
+        <v>4.6679837520947</v>
       </c>
       <c r="G118" t="n">
-        <v>3.87771399247554</v>
+        <v>3.67092391608665</v>
       </c>
     </row>
     <row r="119">
@@ -3110,10 +3110,10 @@
         <v>11</v>
       </c>
       <c r="F119" t="n">
-        <v>4.32325109626229</v>
+        <v>4.44027616393971</v>
       </c>
       <c r="G119" t="n">
-        <v>3.55039720499805</v>
+        <v>3.59873439144062</v>
       </c>
     </row>
     <row r="120">
@@ -3133,10 +3133,10 @@
         <v>11</v>
       </c>
       <c r="F120" t="n">
-        <v>4.76534097361232</v>
+        <v>4.71515159005967</v>
       </c>
       <c r="G120" t="n">
-        <v>3.54849956465963</v>
+        <v>3.63540822054308</v>
       </c>
     </row>
     <row r="121">
@@ -3156,10 +3156,10 @@
         <v>11</v>
       </c>
       <c r="F121" t="n">
-        <v>4.85907403971647</v>
+        <v>4.76486482015563</v>
       </c>
       <c r="G121" t="n">
-        <v>3.71114485220502</v>
+        <v>3.65937719068062</v>
       </c>
     </row>
     <row r="122">
@@ -3179,10 +3179,10 @@
         <v>8</v>
       </c>
       <c r="F122" t="n">
-        <v>0.943</v>
+        <v>0.9455</v>
       </c>
       <c r="G122" t="n">
-        <v>0.966</v>
+        <v>0.9655</v>
       </c>
     </row>
     <row r="123">
@@ -3202,10 +3202,10 @@
         <v>8</v>
       </c>
       <c r="F123" t="n">
-        <v>0.935</v>
+        <v>0.9295</v>
       </c>
       <c r="G123" t="n">
-        <v>0.958</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="124">
@@ -3225,10 +3225,10 @@
         <v>8</v>
       </c>
       <c r="F124" t="n">
-        <v>0.924</v>
+        <v>0.9235</v>
       </c>
       <c r="G124" t="n">
-        <v>0.947</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="125">
@@ -3248,10 +3248,10 @@
         <v>8</v>
       </c>
       <c r="F125" t="n">
-        <v>0.93</v>
+        <v>0.9265</v>
       </c>
       <c r="G125" t="n">
-        <v>0.951</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="126">
@@ -3271,10 +3271,10 @@
         <v>8</v>
       </c>
       <c r="F126" t="n">
-        <v>0.926</v>
+        <v>0.927</v>
       </c>
       <c r="G126" t="n">
-        <v>0.955</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="127">
@@ -3294,10 +3294,10 @@
         <v>8</v>
       </c>
       <c r="F127" t="n">
-        <v>0.918</v>
+        <v>0.924</v>
       </c>
       <c r="G127" t="n">
-        <v>0.946</v>
+        <v>0.9435</v>
       </c>
     </row>
     <row r="128">
@@ -3317,10 +3317,10 @@
         <v>8</v>
       </c>
       <c r="F128" t="n">
-        <v>0.929</v>
+        <v>0.9325</v>
       </c>
       <c r="G128" t="n">
-        <v>0.952</v>
+        <v>0.9565</v>
       </c>
     </row>
     <row r="129">
@@ -3340,10 +3340,10 @@
         <v>8</v>
       </c>
       <c r="F129" t="n">
-        <v>0.925</v>
+        <v>0.928</v>
       </c>
       <c r="G129" t="n">
-        <v>0.953</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="130">
@@ -3363,10 +3363,10 @@
         <v>8</v>
       </c>
       <c r="F130" t="n">
-        <v>0.927</v>
+        <v>0.9175</v>
       </c>
       <c r="G130" t="n">
-        <v>0.952</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="131">
@@ -3386,10 +3386,10 @@
         <v>8</v>
       </c>
       <c r="F131" t="n">
-        <v>0.928</v>
+        <v>0.9185</v>
       </c>
       <c r="G131" t="n">
-        <v>0.956</v>
+        <v>0.9475</v>
       </c>
     </row>
     <row r="132">
@@ -3409,10 +3409,10 @@
         <v>9</v>
       </c>
       <c r="F132" t="n">
-        <v>26.4305889716815</v>
+        <v>26.2465025087268</v>
       </c>
       <c r="G132" t="n">
-        <v>24.706709386154</v>
+        <v>24.9643802333108</v>
       </c>
     </row>
     <row r="133">
@@ -3432,10 +3432,10 @@
         <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>27.0054351791597</v>
+        <v>26.4421734795584</v>
       </c>
       <c r="G133" t="n">
-        <v>25.3809825364559</v>
+        <v>25.255264038452</v>
       </c>
     </row>
     <row r="134">
@@ -3455,10 +3455,10 @@
         <v>9</v>
       </c>
       <c r="F134" t="n">
-        <v>27.0558900675065</v>
+        <v>26.6236103661805</v>
       </c>
       <c r="G134" t="n">
-        <v>25.5789995263683</v>
+        <v>25.4627216346167</v>
       </c>
     </row>
     <row r="135">
@@ -3478,10 +3478,10 @@
         <v>9</v>
       </c>
       <c r="F135" t="n">
-        <v>27.1840065603077</v>
+        <v>26.6607984738485</v>
       </c>
       <c r="G135" t="n">
-        <v>25.6757611203321</v>
+        <v>25.5603966047597</v>
       </c>
     </row>
     <row r="136">
@@ -3501,10 +3501,10 @@
         <v>9</v>
       </c>
       <c r="F136" t="n">
-        <v>27.3559886503176</v>
+        <v>26.8750555829605</v>
       </c>
       <c r="G136" t="n">
-        <v>25.860163669056</v>
+        <v>25.72807717151</v>
       </c>
     </row>
     <row r="137">
@@ -3524,10 +3524,10 @@
         <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>27.2480884319678</v>
+        <v>26.5884824833378</v>
       </c>
       <c r="G137" t="n">
-        <v>25.9860560274626</v>
+        <v>25.4048798624339</v>
       </c>
     </row>
     <row r="138">
@@ -3547,10 +3547,10 @@
         <v>9</v>
       </c>
       <c r="F138" t="n">
-        <v>27.1198943683621</v>
+        <v>26.8243379844895</v>
       </c>
       <c r="G138" t="n">
-        <v>25.7670975416508</v>
+        <v>25.6922972418047</v>
       </c>
     </row>
     <row r="139">
@@ -3570,10 +3570,10 @@
         <v>9</v>
       </c>
       <c r="F139" t="n">
-        <v>27.0635566788229</v>
+        <v>26.8379619116454</v>
       </c>
       <c r="G139" t="n">
-        <v>25.4231564484675</v>
+        <v>25.7330674848691</v>
       </c>
     </row>
     <row r="140">
@@ -3593,10 +3593,10 @@
         <v>9</v>
       </c>
       <c r="F140" t="n">
-        <v>27.0333638513132</v>
+        <v>26.8301009220147</v>
       </c>
       <c r="G140" t="n">
-        <v>25.705275599085</v>
+        <v>26.0915741055721</v>
       </c>
     </row>
     <row r="141">
@@ -3616,10 +3616,10 @@
         <v>9</v>
       </c>
       <c r="F141" t="n">
-        <v>27.3376061031086</v>
+        <v>26.8745333236306</v>
       </c>
       <c r="G141" t="n">
-        <v>25.7961920250138</v>
+        <v>25.6870101658709</v>
       </c>
     </row>
     <row r="142">
@@ -3639,10 +3639,10 @@
         <v>10</v>
       </c>
       <c r="F142" t="n">
-        <v>40.2527699916501</v>
+        <v>38.2605292626067</v>
       </c>
       <c r="G142" t="n">
-        <v>23.5563517790422</v>
+        <v>23.4975052380863</v>
       </c>
     </row>
     <row r="143">
@@ -3662,10 +3662,10 @@
         <v>10</v>
       </c>
       <c r="F143" t="n">
-        <v>44.7071079387878</v>
+        <v>44.0266751931565</v>
       </c>
       <c r="G143" t="n">
-        <v>26.716048833146</v>
+        <v>26.8652902681472</v>
       </c>
     </row>
     <row r="144">
@@ -3685,10 +3685,10 @@
         <v>10</v>
       </c>
       <c r="F144" t="n">
-        <v>51.0564319819856</v>
+        <v>44.5160255206092</v>
       </c>
       <c r="G144" t="n">
-        <v>30.8857238912955</v>
+        <v>26.9490833356381</v>
       </c>
     </row>
     <row r="145">
@@ -3708,10 +3708,10 @@
         <v>10</v>
       </c>
       <c r="F145" t="n">
-        <v>49.9960634465277</v>
+        <v>45.8005440639483</v>
       </c>
       <c r="G145" t="n">
-        <v>31.2446815687677</v>
+        <v>27.6964191284635</v>
       </c>
     </row>
     <row r="146">
@@ -3731,10 +3731,10 @@
         <v>10</v>
       </c>
       <c r="F146" t="n">
-        <v>48.2660239229572</v>
+        <v>50.0422679410308</v>
       </c>
       <c r="G146" t="n">
-        <v>29.0980748026583</v>
+        <v>30.650972848049</v>
       </c>
     </row>
     <row r="147">
@@ -3754,10 +3754,10 @@
         <v>10</v>
       </c>
       <c r="F147" t="n">
-        <v>52.2462433731651</v>
+        <v>48.4656608730031</v>
       </c>
       <c r="G147" t="n">
-        <v>30.9571976051208</v>
+        <v>30.6281198130218</v>
       </c>
     </row>
     <row r="148">
@@ -3777,10 +3777,10 @@
         <v>10</v>
       </c>
       <c r="F148" t="n">
-        <v>50.3643782125662</v>
+        <v>48.9401494157153</v>
       </c>
       <c r="G148" t="n">
-        <v>29.8419806232155</v>
+        <v>29.8838055795369</v>
       </c>
     </row>
     <row r="149">
@@ -3800,10 +3800,10 @@
         <v>10</v>
       </c>
       <c r="F149" t="n">
-        <v>46.0770734616765</v>
+        <v>49.727349524978</v>
       </c>
       <c r="G149" t="n">
-        <v>28.2917286463593</v>
+        <v>29.3666815769615</v>
       </c>
     </row>
     <row r="150">
@@ -3823,10 +3823,10 @@
         <v>10</v>
       </c>
       <c r="F150" t="n">
-        <v>47.0077192310944</v>
+        <v>50.4562942340864</v>
       </c>
       <c r="G150" t="n">
-        <v>27.842551194476</v>
+        <v>30.6658036183616</v>
       </c>
     </row>
     <row r="151">
@@ -3846,10 +3846,10 @@
         <v>10</v>
       </c>
       <c r="F151" t="n">
-        <v>48.4729551222243</v>
+        <v>47.5235194449148</v>
       </c>
       <c r="G151" t="n">
-        <v>28.5518708871192</v>
+        <v>29.2629491090292</v>
       </c>
     </row>
     <row r="152">
@@ -3869,10 +3869,10 @@
         <v>11</v>
       </c>
       <c r="F152" t="n">
-        <v>4.04327232107189</v>
+        <v>3.97765136099134</v>
       </c>
       <c r="G152" t="n">
-        <v>2.63171862040346</v>
+        <v>2.91201871401445</v>
       </c>
     </row>
     <row r="153">
@@ -3892,10 +3892,10 @@
         <v>11</v>
       </c>
       <c r="F153" t="n">
-        <v>4.19051852351246</v>
+        <v>4.16892571973</v>
       </c>
       <c r="G153" t="n">
-        <v>2.93676330142072</v>
+        <v>2.97554913803267</v>
       </c>
     </row>
     <row r="154">
@@ -3915,10 +3915,10 @@
         <v>11</v>
       </c>
       <c r="F154" t="n">
-        <v>4.4509821913282</v>
+        <v>4.40915138884532</v>
       </c>
       <c r="G154" t="n">
-        <v>3.12300389487186</v>
+        <v>3.1221396160861</v>
       </c>
     </row>
     <row r="155">
@@ -3938,10 +3938,10 @@
         <v>11</v>
       </c>
       <c r="F155" t="n">
-        <v>4.23886297775232</v>
+        <v>4.20733401477601</v>
       </c>
       <c r="G155" t="n">
-        <v>3.08206577057731</v>
+        <v>2.93568846421433</v>
       </c>
     </row>
     <row r="156">
@@ -3961,10 +3961,10 @@
         <v>11</v>
       </c>
       <c r="F156" t="n">
-        <v>4.30245226591998</v>
+        <v>4.19808532873705</v>
       </c>
       <c r="G156" t="n">
-        <v>3.14171231759444</v>
+        <v>3.00001037397645</v>
       </c>
     </row>
     <row r="157">
@@ -3984,10 +3984,10 @@
         <v>11</v>
       </c>
       <c r="F157" t="n">
-        <v>4.40079751823516</v>
+        <v>4.48372355077062</v>
       </c>
       <c r="G157" t="n">
-        <v>2.87354199265965</v>
+        <v>3.12765217603072</v>
       </c>
     </row>
     <row r="158">
@@ -4007,10 +4007,10 @@
         <v>11</v>
       </c>
       <c r="F158" t="n">
-        <v>4.37944619184338</v>
+        <v>4.31461534669306</v>
       </c>
       <c r="G158" t="n">
-        <v>3.12697843266896</v>
+        <v>3.11065404026113</v>
       </c>
     </row>
     <row r="159">
@@ -4030,10 +4030,10 @@
         <v>11</v>
       </c>
       <c r="F159" t="n">
-        <v>4.37429362411877</v>
+        <v>4.42973378945655</v>
       </c>
       <c r="G159" t="n">
-        <v>3.15761658732159</v>
+        <v>3.06786382706362</v>
       </c>
     </row>
     <row r="160">
@@ -4053,10 +4053,10 @@
         <v>11</v>
       </c>
       <c r="F160" t="n">
-        <v>4.49813573099349</v>
+        <v>4.37594092094739</v>
       </c>
       <c r="G160" t="n">
-        <v>3.18589511329719</v>
+        <v>2.92368947427026</v>
       </c>
     </row>
     <row r="161">
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="F161" t="n">
-        <v>4.47920249939989</v>
+        <v>4.35749392521146</v>
       </c>
       <c r="G161" t="n">
-        <v>2.87476572150939</v>
+        <v>3.13478149931216</v>
       </c>
     </row>
   </sheetData>

--- a/DGP6.xlsx
+++ b/DGP6.xlsx
@@ -377,7 +377,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/DGP6.xlsx
+++ b/DGP6.xlsx
@@ -407,10 +407,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -419,10 +419,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.908</v>
+        <v>0.936</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9275</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="3">
@@ -430,10 +430,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -442,10 +442,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.907</v>
+        <v>0.918</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9265</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="4">
@@ -453,10 +453,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -465,10 +465,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.903</v>
+        <v>0.92</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9245</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="5">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9225</v>
+        <v>0.9365</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
@@ -511,10 +511,10 @@
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9005</v>
+        <v>0.917</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9205</v>
+        <v>0.941</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -534,10 +534,10 @@
         <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8965</v>
+        <v>0.914</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9175</v>
+        <v>0.944</v>
       </c>
     </row>
     <row r="8">
@@ -545,10 +545,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -557,10 +557,10 @@
         <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>0.899</v>
+        <v>0.907</v>
       </c>
       <c r="G8" t="n">
-        <v>0.92</v>
+        <v>0.934</v>
       </c>
     </row>
     <row r="9">
@@ -568,10 +568,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
@@ -580,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8985</v>
+        <v>0.903</v>
       </c>
       <c r="G9" t="n">
-        <v>0.919</v>
+        <v>0.9385</v>
       </c>
     </row>
     <row r="10">
@@ -591,10 +591,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
         <v>9</v>
@@ -603,10 +603,10 @@
         <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9015</v>
+        <v>0.914</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9205</v>
+        <v>0.9405</v>
       </c>
     </row>
     <row r="11">
@@ -614,10 +614,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
@@ -626,10 +626,10 @@
         <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>0.898</v>
+        <v>0.908</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9175</v>
+        <v>0.9385</v>
       </c>
     </row>
     <row r="12">
@@ -637,10 +637,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>26.9564780171063</v>
+        <v>26.854393641444</v>
       </c>
       <c r="G12" t="n">
-        <v>26.3864994211114</v>
+        <v>25.6756413953924</v>
       </c>
     </row>
     <row r="13">
@@ -660,10 +660,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -672,10 +672,10 @@
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>27.3509570462762</v>
+        <v>27.2056019216189</v>
       </c>
       <c r="G13" t="n">
-        <v>26.9312426364678</v>
+        <v>26.1766170693049</v>
       </c>
     </row>
     <row r="14">
@@ -683,10 +683,10 @@
         <v>7</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
         <v>3</v>
@@ -695,10 +695,10 @@
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>27.5524777053431</v>
+        <v>27.221753450415</v>
       </c>
       <c r="G14" t="n">
-        <v>27.0028959765219</v>
+        <v>26.2362196063711</v>
       </c>
     </row>
     <row r="15">
@@ -706,10 +706,10 @@
         <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
         <v>4</v>
@@ -718,10 +718,10 @@
         <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>27.5482887436211</v>
+        <v>27.337624025508</v>
       </c>
       <c r="G15" t="n">
-        <v>27.225808698082</v>
+        <v>26.2781492173185</v>
       </c>
     </row>
     <row r="16">
@@ -729,10 +729,10 @@
         <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D16" t="n">
         <v>5</v>
@@ -741,10 +741,10 @@
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>27.651221146701</v>
+        <v>27.4322818858858</v>
       </c>
       <c r="G16" t="n">
-        <v>27.3696907682783</v>
+        <v>26.5287484165174</v>
       </c>
     </row>
     <row r="17">
@@ -752,10 +752,10 @@
         <v>7</v>
       </c>
       <c r="B17" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
@@ -764,10 +764,10 @@
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>27.661752024719</v>
+        <v>27.2092314623009</v>
       </c>
       <c r="G17" t="n">
-        <v>27.2341157368733</v>
+        <v>26.4342270763565</v>
       </c>
     </row>
     <row r="18">
@@ -775,10 +775,10 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
         <v>7</v>
@@ -787,10 +787,10 @@
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>27.6878243532228</v>
+        <v>27.4363610609261</v>
       </c>
       <c r="G18" t="n">
-        <v>27.3585010361425</v>
+        <v>26.3715269321631</v>
       </c>
     </row>
     <row r="19">
@@ -798,10 +798,10 @@
         <v>7</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
         <v>8</v>
@@ -810,10 +810,10 @@
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>27.6446863179964</v>
+        <v>27.3664741149508</v>
       </c>
       <c r="G19" t="n">
-        <v>27.345188861611</v>
+        <v>26.5581985395438</v>
       </c>
     </row>
     <row r="20">
@@ -821,10 +821,10 @@
         <v>7</v>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D20" t="n">
         <v>9</v>
@@ -833,10 +833,10 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>27.8529560871818</v>
+        <v>27.2094919388118</v>
       </c>
       <c r="G20" t="n">
-        <v>27.4599997221482</v>
+        <v>26.5102523103394</v>
       </c>
     </row>
     <row r="21">
@@ -844,10 +844,10 @@
         <v>7</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D21" t="n">
         <v>10</v>
@@ -856,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>27.9692182030836</v>
+        <v>27.4436925688937</v>
       </c>
       <c r="G21" t="n">
-        <v>27.5286556557735</v>
+        <v>26.5106939032074</v>
       </c>
     </row>
     <row r="22">
@@ -867,10 +867,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C22" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>48.6774901618697</v>
+        <v>43.0626062420683</v>
       </c>
       <c r="G22" t="n">
-        <v>32.6333363427745</v>
+        <v>24.8976458856172</v>
       </c>
     </row>
     <row r="23">
@@ -890,10 +890,10 @@
         <v>7</v>
       </c>
       <c r="B23" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -902,10 +902,10 @@
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>53.3637864118262</v>
+        <v>49.3825459124935</v>
       </c>
       <c r="G23" t="n">
-        <v>35.5121749761281</v>
+        <v>29.6289874194674</v>
       </c>
     </row>
     <row r="24">
@@ -913,10 +913,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
@@ -925,10 +925,10 @@
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>56.2602298761038</v>
+        <v>51.7142470806187</v>
       </c>
       <c r="G24" t="n">
-        <v>37.7635218004049</v>
+        <v>30.9267233707699</v>
       </c>
     </row>
     <row r="25">
@@ -936,10 +936,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D25" t="n">
         <v>4</v>
@@ -948,10 +948,10 @@
         <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>55.1062102833658</v>
+        <v>52.3834029982402</v>
       </c>
       <c r="G25" t="n">
-        <v>37.493435252302</v>
+        <v>32.0013831617322</v>
       </c>
     </row>
     <row r="26">
@@ -959,10 +959,10 @@
         <v>7</v>
       </c>
       <c r="B26" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D26" t="n">
         <v>5</v>
@@ -971,10 +971,10 @@
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>56.9099723529684</v>
+        <v>51.5998968960983</v>
       </c>
       <c r="G26" t="n">
-        <v>39.2763012187678</v>
+        <v>31.686785347804</v>
       </c>
     </row>
     <row r="27">
@@ -982,10 +982,10 @@
         <v>7</v>
       </c>
       <c r="B27" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
@@ -994,10 +994,10 @@
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>58.2064755450063</v>
+        <v>52.2816486954375</v>
       </c>
       <c r="G27" t="n">
-        <v>40.3817016694332</v>
+        <v>31.7506512376138</v>
       </c>
     </row>
     <row r="28">
@@ -1005,10 +1005,10 @@
         <v>7</v>
       </c>
       <c r="B28" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
         <v>7</v>
@@ -1017,10 +1017,10 @@
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>57.5200834608789</v>
+        <v>55.1447270219099</v>
       </c>
       <c r="G28" t="n">
-        <v>40.0490376175671</v>
+        <v>34.1040495313633</v>
       </c>
     </row>
     <row r="29">
@@ -1028,10 +1028,10 @@
         <v>7</v>
       </c>
       <c r="B29" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
         <v>8</v>
@@ -1040,10 +1040,10 @@
         <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>62.1607083888708</v>
+        <v>56.8608093333146</v>
       </c>
       <c r="G29" t="n">
-        <v>43.9713892555737</v>
+        <v>34.467056784574</v>
       </c>
     </row>
     <row r="30">
@@ -1051,10 +1051,10 @@
         <v>7</v>
       </c>
       <c r="B30" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D30" t="n">
         <v>9</v>
@@ -1063,10 +1063,10 @@
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>59.8868231010668</v>
+        <v>54.8784301990325</v>
       </c>
       <c r="G30" t="n">
-        <v>42.5577544879879</v>
+        <v>33.7813406689998</v>
       </c>
     </row>
     <row r="31">
@@ -1074,10 +1074,10 @@
         <v>7</v>
       </c>
       <c r="B31" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D31" t="n">
         <v>10</v>
@@ -1086,10 +1086,10 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>61.0511848903127</v>
+        <v>55.4183302729971</v>
       </c>
       <c r="G31" t="n">
-        <v>43.1964715867988</v>
+        <v>34.2770952785547</v>
       </c>
     </row>
     <row r="32">
@@ -1097,10 +1097,10 @@
         <v>7</v>
       </c>
       <c r="B32" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -1109,10 +1109,10 @@
         <v>11</v>
       </c>
       <c r="F32" t="n">
-        <v>4.23363042793528</v>
+        <v>4.21944990194272</v>
       </c>
       <c r="G32" t="n">
-        <v>3.2523361472484</v>
+        <v>3.01200600837332</v>
       </c>
     </row>
     <row r="33">
@@ -1120,10 +1120,10 @@
         <v>7</v>
       </c>
       <c r="B33" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C33" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D33" t="n">
         <v>2</v>
@@ -1132,10 +1132,10 @@
         <v>11</v>
       </c>
       <c r="F33" t="n">
-        <v>4.48557766319733</v>
+        <v>4.29022526705332</v>
       </c>
       <c r="G33" t="n">
-        <v>3.28923789320102</v>
+        <v>3.05380071714045</v>
       </c>
     </row>
     <row r="34">
@@ -1143,10 +1143,10 @@
         <v>7</v>
       </c>
       <c r="B34" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C34" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D34" t="n">
         <v>3</v>
@@ -1155,10 +1155,10 @@
         <v>11</v>
       </c>
       <c r="F34" t="n">
-        <v>4.5538270557731</v>
+        <v>4.44324180955094</v>
       </c>
       <c r="G34" t="n">
-        <v>3.40523907584523</v>
+        <v>3.07957902157982</v>
       </c>
     </row>
     <row r="35">
@@ -1166,10 +1166,10 @@
         <v>7</v>
       </c>
       <c r="B35" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C35" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D35" t="n">
         <v>4</v>
@@ -1178,10 +1178,10 @@
         <v>11</v>
       </c>
       <c r="F35" t="n">
-        <v>4.61587434317175</v>
+        <v>4.64561889590975</v>
       </c>
       <c r="G35" t="n">
-        <v>3.49436533985203</v>
+        <v>3.19489379716136</v>
       </c>
     </row>
     <row r="36">
@@ -1189,10 +1189,10 @@
         <v>7</v>
       </c>
       <c r="B36" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C36" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D36" t="n">
         <v>5</v>
@@ -1201,10 +1201,10 @@
         <v>11</v>
       </c>
       <c r="F36" t="n">
-        <v>4.45843156471892</v>
+        <v>4.42608669296123</v>
       </c>
       <c r="G36" t="n">
-        <v>3.37390334066804</v>
+        <v>3.23156255075956</v>
       </c>
     </row>
     <row r="37">
@@ -1212,10 +1212,10 @@
         <v>7</v>
       </c>
       <c r="B37" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C37" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D37" t="n">
         <v>6</v>
@@ -1224,10 +1224,10 @@
         <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>4.81176474730525</v>
+        <v>4.49155545414403</v>
       </c>
       <c r="G37" t="n">
-        <v>3.654766606748</v>
+        <v>3.24693723886918</v>
       </c>
     </row>
     <row r="38">
@@ -1235,10 +1235,10 @@
         <v>7</v>
       </c>
       <c r="B38" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C38" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D38" t="n">
         <v>7</v>
@@ -1247,10 +1247,10 @@
         <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>4.55157958337778</v>
+        <v>4.6742501959165</v>
       </c>
       <c r="G38" t="n">
-        <v>3.42007661777333</v>
+        <v>3.35284466893891</v>
       </c>
     </row>
     <row r="39">
@@ -1258,10 +1258,10 @@
         <v>7</v>
       </c>
       <c r="B39" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C39" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D39" t="n">
         <v>8</v>
@@ -1270,10 +1270,10 @@
         <v>11</v>
       </c>
       <c r="F39" t="n">
-        <v>4.71965975171836</v>
+        <v>4.47832454431742</v>
       </c>
       <c r="G39" t="n">
-        <v>3.67264322965117</v>
+        <v>3.20871668011501</v>
       </c>
     </row>
     <row r="40">
@@ -1281,10 +1281,10 @@
         <v>7</v>
       </c>
       <c r="B40" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D40" t="n">
         <v>9</v>
@@ -1293,10 +1293,10 @@
         <v>11</v>
       </c>
       <c r="F40" t="n">
-        <v>4.4460401822689</v>
+        <v>4.5616478896729</v>
       </c>
       <c r="G40" t="n">
-        <v>3.50178461161558</v>
+        <v>3.23051321518338</v>
       </c>
     </row>
     <row r="41">
@@ -1304,10 +1304,10 @@
         <v>7</v>
       </c>
       <c r="B41" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D41" t="n">
         <v>10</v>
@@ -1316,10 +1316,10 @@
         <v>11</v>
       </c>
       <c r="F41" t="n">
-        <v>4.56195069308749</v>
+        <v>4.49219784573713</v>
       </c>
       <c r="G41" t="n">
-        <v>3.48057617402125</v>
+        <v>3.32572661598916</v>
       </c>
     </row>
     <row r="42">
@@ -1327,7 +1327,7 @@
         <v>7</v>
       </c>
       <c r="B42" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C42" t="n">
         <v>70</v>
@@ -1339,10 +1339,10 @@
         <v>8</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9405</v>
+        <v>0.9315</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9655</v>
+        <v>0.9555</v>
       </c>
     </row>
     <row r="43">
@@ -1350,7 +1350,7 @@
         <v>7</v>
       </c>
       <c r="B43" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C43" t="n">
         <v>70</v>
@@ -1362,10 +1362,10 @@
         <v>8</v>
       </c>
       <c r="F43" t="n">
-        <v>0.926</v>
+        <v>0.928</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9555</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="44">
@@ -1373,7 +1373,7 @@
         <v>7</v>
       </c>
       <c r="B44" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C44" t="n">
         <v>70</v>
@@ -1385,10 +1385,10 @@
         <v>8</v>
       </c>
       <c r="F44" t="n">
-        <v>0.926</v>
+        <v>0.924</v>
       </c>
       <c r="G44" t="n">
-        <v>0.956</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="45">
@@ -1396,7 +1396,7 @@
         <v>7</v>
       </c>
       <c r="B45" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C45" t="n">
         <v>70</v>
@@ -1408,10 +1408,10 @@
         <v>8</v>
       </c>
       <c r="F45" t="n">
-        <v>0.917</v>
+        <v>0.9265</v>
       </c>
       <c r="G45" t="n">
-        <v>0.949</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="46">
@@ -1419,7 +1419,7 @@
         <v>7</v>
       </c>
       <c r="B46" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C46" t="n">
         <v>70</v>
@@ -1431,10 +1431,10 @@
         <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9315</v>
+        <v>0.9165</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9515</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="47">
@@ -1442,7 +1442,7 @@
         <v>7</v>
       </c>
       <c r="B47" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C47" t="n">
         <v>70</v>
@@ -1454,10 +1454,10 @@
         <v>8</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9245</v>
+        <v>0.927</v>
       </c>
       <c r="G47" t="n">
-        <v>0.957</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="48">
@@ -1465,7 +1465,7 @@
         <v>7</v>
       </c>
       <c r="B48" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C48" t="n">
         <v>70</v>
@@ -1477,10 +1477,10 @@
         <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9245</v>
+        <v>0.93</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9595</v>
+        <v>0.9605</v>
       </c>
     </row>
     <row r="49">
@@ -1488,7 +1488,7 @@
         <v>7</v>
       </c>
       <c r="B49" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C49" t="n">
         <v>70</v>
@@ -1500,10 +1500,10 @@
         <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9275</v>
+        <v>0.9205</v>
       </c>
       <c r="G49" t="n">
-        <v>0.96</v>
+        <v>0.9545</v>
       </c>
     </row>
     <row r="50">
@@ -1511,7 +1511,7 @@
         <v>7</v>
       </c>
       <c r="B50" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C50" t="n">
         <v>70</v>
@@ -1523,7 +1523,7 @@
         <v>8</v>
       </c>
       <c r="F50" t="n">
-        <v>0.921</v>
+        <v>0.9255</v>
       </c>
       <c r="G50" t="n">
         <v>0.9515</v>
@@ -1534,7 +1534,7 @@
         <v>7</v>
       </c>
       <c r="B51" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C51" t="n">
         <v>70</v>
@@ -1546,10 +1546,10 @@
         <v>8</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9145</v>
+        <v>0.926</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9425</v>
+        <v>0.9555</v>
       </c>
     </row>
     <row r="52">
@@ -1557,7 +1557,7 @@
         <v>7</v>
       </c>
       <c r="B52" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C52" t="n">
         <v>70</v>
@@ -1569,10 +1569,10 @@
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>26.4796081459242</v>
+        <v>26.4930650533582</v>
       </c>
       <c r="G52" t="n">
-        <v>24.7074985465458</v>
+        <v>24.4279860133754</v>
       </c>
     </row>
     <row r="53">
@@ -1580,7 +1580,7 @@
         <v>7</v>
       </c>
       <c r="B53" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C53" t="n">
         <v>70</v>
@@ -1592,10 +1592,10 @@
         <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>26.3622315568582</v>
+        <v>26.6268571673331</v>
       </c>
       <c r="G53" t="n">
-        <v>24.8103423073686</v>
+        <v>24.896901958743</v>
       </c>
     </row>
     <row r="54">
@@ -1603,7 +1603,7 @@
         <v>7</v>
       </c>
       <c r="B54" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C54" t="n">
         <v>70</v>
@@ -1615,10 +1615,10 @@
         <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>26.6031016985419</v>
+        <v>26.8793433665249</v>
       </c>
       <c r="G54" t="n">
-        <v>25.082718651021</v>
+        <v>24.9746000367827</v>
       </c>
     </row>
     <row r="55">
@@ -1626,7 +1626,7 @@
         <v>7</v>
       </c>
       <c r="B55" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C55" t="n">
         <v>70</v>
@@ -1638,10 +1638,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>26.557094953796</v>
+        <v>26.8444555140217</v>
       </c>
       <c r="G55" t="n">
-        <v>25.0087592035624</v>
+        <v>24.9343668087705</v>
       </c>
     </row>
     <row r="56">
@@ -1649,7 +1649,7 @@
         <v>7</v>
       </c>
       <c r="B56" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C56" t="n">
         <v>70</v>
@@ -1661,10 +1661,10 @@
         <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>26.7715885183827</v>
+        <v>26.823897831728</v>
       </c>
       <c r="G56" t="n">
-        <v>25.0871053569279</v>
+        <v>24.9973028534984</v>
       </c>
     </row>
     <row r="57">
@@ -1672,7 +1672,7 @@
         <v>7</v>
       </c>
       <c r="B57" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C57" t="n">
         <v>70</v>
@@ -1684,10 +1684,10 @@
         <v>9</v>
       </c>
       <c r="F57" t="n">
-        <v>26.8786143858572</v>
+        <v>26.7505284842038</v>
       </c>
       <c r="G57" t="n">
-        <v>25.2841266363191</v>
+        <v>24.9895388839664</v>
       </c>
     </row>
     <row r="58">
@@ -1695,7 +1695,7 @@
         <v>7</v>
       </c>
       <c r="B58" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C58" t="n">
         <v>70</v>
@@ -1707,10 +1707,10 @@
         <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>27.1309590111826</v>
+        <v>26.9318309128675</v>
       </c>
       <c r="G58" t="n">
-        <v>25.6905794825247</v>
+        <v>25.1389819476949</v>
       </c>
     </row>
     <row r="59">
@@ -1718,7 +1718,7 @@
         <v>7</v>
       </c>
       <c r="B59" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C59" t="n">
         <v>70</v>
@@ -1730,10 +1730,10 @@
         <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>26.8988354425658</v>
+        <v>26.8530365505094</v>
       </c>
       <c r="G59" t="n">
-        <v>25.492880178899</v>
+        <v>25.0241633883817</v>
       </c>
     </row>
     <row r="60">
@@ -1741,7 +1741,7 @@
         <v>7</v>
       </c>
       <c r="B60" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C60" t="n">
         <v>70</v>
@@ -1753,10 +1753,10 @@
         <v>9</v>
       </c>
       <c r="F60" t="n">
-        <v>26.8441738596466</v>
+        <v>26.9207700655986</v>
       </c>
       <c r="G60" t="n">
-        <v>25.4726239440018</v>
+        <v>25.3436055139093</v>
       </c>
     </row>
     <row r="61">
@@ -1764,7 +1764,7 @@
         <v>7</v>
       </c>
       <c r="B61" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C61" t="n">
         <v>70</v>
@@ -1776,10 +1776,10 @@
         <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>26.9131610312805</v>
+        <v>26.8270129824289</v>
       </c>
       <c r="G61" t="n">
-        <v>25.5510343765111</v>
+        <v>25.1141092357136</v>
       </c>
     </row>
     <row r="62">
@@ -1787,7 +1787,7 @@
         <v>7</v>
       </c>
       <c r="B62" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C62" t="n">
         <v>70</v>
@@ -1799,10 +1799,10 @@
         <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>40.8832575723589</v>
+        <v>42.4358340102961</v>
       </c>
       <c r="G62" t="n">
-        <v>22.1753824812933</v>
+        <v>22.4228304008278</v>
       </c>
     </row>
     <row r="63">
@@ -1810,7 +1810,7 @@
         <v>7</v>
       </c>
       <c r="B63" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C63" t="n">
         <v>70</v>
@@ -1822,10 +1822,10 @@
         <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>44.0881907595843</v>
+        <v>45.4543057004754</v>
       </c>
       <c r="G63" t="n">
-        <v>24.9054370960679</v>
+        <v>24.8400490830049</v>
       </c>
     </row>
     <row r="64">
@@ -1833,7 +1833,7 @@
         <v>7</v>
       </c>
       <c r="B64" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C64" t="n">
         <v>70</v>
@@ -1845,10 +1845,10 @@
         <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>46.1964062259574</v>
+        <v>48.8018094163719</v>
       </c>
       <c r="G64" t="n">
-        <v>26.0504246919515</v>
+        <v>25.9329428061481</v>
       </c>
     </row>
     <row r="65">
@@ -1856,7 +1856,7 @@
         <v>7</v>
       </c>
       <c r="B65" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C65" t="n">
         <v>70</v>
@@ -1868,10 +1868,10 @@
         <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>48.914178386846</v>
+        <v>53.2611683367133</v>
       </c>
       <c r="G65" t="n">
-        <v>28.2286969710836</v>
+        <v>27.6743032831346</v>
       </c>
     </row>
     <row r="66">
@@ -1879,7 +1879,7 @@
         <v>7</v>
       </c>
       <c r="B66" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C66" t="n">
         <v>70</v>
@@ -1891,10 +1891,10 @@
         <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>45.5915596446012</v>
+        <v>51.3376052372483</v>
       </c>
       <c r="G66" t="n">
-        <v>26.1120101892786</v>
+        <v>27.9088914099515</v>
       </c>
     </row>
     <row r="67">
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C67" t="n">
         <v>70</v>
@@ -1914,10 +1914,10 @@
         <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>48.3523752192568</v>
+        <v>49.0490564921984</v>
       </c>
       <c r="G67" t="n">
-        <v>27.2751323423836</v>
+        <v>27.0838014767433</v>
       </c>
     </row>
     <row r="68">
@@ -1925,7 +1925,7 @@
         <v>7</v>
       </c>
       <c r="B68" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C68" t="n">
         <v>70</v>
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>51.0606598105177</v>
+        <v>48.5492036433185</v>
       </c>
       <c r="G68" t="n">
-        <v>28.5462287428915</v>
+        <v>26.4917076774564</v>
       </c>
     </row>
     <row r="69">
@@ -1948,7 +1948,7 @@
         <v>7</v>
       </c>
       <c r="B69" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C69" t="n">
         <v>70</v>
@@ -1960,10 +1960,10 @@
         <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>52.578334927005</v>
+        <v>48.5674230621222</v>
       </c>
       <c r="G69" t="n">
-        <v>30.2773671592452</v>
+        <v>26.9929135120949</v>
       </c>
     </row>
     <row r="70">
@@ -1971,7 +1971,7 @@
         <v>7</v>
       </c>
       <c r="B70" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C70" t="n">
         <v>70</v>
@@ -1983,10 +1983,10 @@
         <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>51.769307238045</v>
+        <v>49.1748786661739</v>
       </c>
       <c r="G70" t="n">
-        <v>30.1757098094273</v>
+        <v>27.6217610412753</v>
       </c>
     </row>
     <row r="71">
@@ -1994,7 +1994,7 @@
         <v>7</v>
       </c>
       <c r="B71" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C71" t="n">
         <v>70</v>
@@ -2006,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>53.4481742591436</v>
+        <v>48.1057079869109</v>
       </c>
       <c r="G71" t="n">
-        <v>31.3056899982602</v>
+        <v>25.9091845263731</v>
       </c>
     </row>
     <row r="72">
@@ -2017,7 +2017,7 @@
         <v>7</v>
       </c>
       <c r="B72" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C72" t="n">
         <v>70</v>
@@ -2029,10 +2029,10 @@
         <v>11</v>
       </c>
       <c r="F72" t="n">
-        <v>4.15408181236459</v>
+        <v>4.00214321113629</v>
       </c>
       <c r="G72" t="n">
-        <v>2.88879856955255</v>
+        <v>2.82037115070408</v>
       </c>
     </row>
     <row r="73">
@@ -2040,7 +2040,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C73" t="n">
         <v>70</v>
@@ -2052,10 +2052,10 @@
         <v>11</v>
       </c>
       <c r="F73" t="n">
-        <v>4.15130460915575</v>
+        <v>4.1444232215953</v>
       </c>
       <c r="G73" t="n">
-        <v>2.84421949669838</v>
+        <v>2.88487258558485</v>
       </c>
     </row>
     <row r="74">
@@ -2063,7 +2063,7 @@
         <v>7</v>
       </c>
       <c r="B74" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C74" t="n">
         <v>70</v>
@@ -2075,10 +2075,10 @@
         <v>11</v>
       </c>
       <c r="F74" t="n">
-        <v>4.37058237148265</v>
+        <v>4.39735085365925</v>
       </c>
       <c r="G74" t="n">
-        <v>3.03222463192374</v>
+        <v>2.80965854437542</v>
       </c>
     </row>
     <row r="75">
@@ -2086,7 +2086,7 @@
         <v>7</v>
       </c>
       <c r="B75" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C75" t="n">
         <v>70</v>
@@ -2098,10 +2098,10 @@
         <v>11</v>
       </c>
       <c r="F75" t="n">
-        <v>4.3813290208677</v>
+        <v>4.46014272288172</v>
       </c>
       <c r="G75" t="n">
-        <v>3.05717535379536</v>
+        <v>2.99635237158647</v>
       </c>
     </row>
     <row r="76">
@@ -2109,7 +2109,7 @@
         <v>7</v>
       </c>
       <c r="B76" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C76" t="n">
         <v>70</v>
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="F76" t="n">
-        <v>4.05061048470563</v>
+        <v>4.39276440589873</v>
       </c>
       <c r="G76" t="n">
-        <v>2.88542618649114</v>
+        <v>2.84817858249756</v>
       </c>
     </row>
     <row r="77">
@@ -2132,7 +2132,7 @@
         <v>7</v>
       </c>
       <c r="B77" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C77" t="n">
         <v>70</v>
@@ -2144,10 +2144,10 @@
         <v>11</v>
       </c>
       <c r="F77" t="n">
-        <v>4.285579839857</v>
+        <v>4.40392903145385</v>
       </c>
       <c r="G77" t="n">
-        <v>2.98683032507106</v>
+        <v>2.93577198427311</v>
       </c>
     </row>
     <row r="78">
@@ -2155,7 +2155,7 @@
         <v>7</v>
       </c>
       <c r="B78" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C78" t="n">
         <v>70</v>
@@ -2167,10 +2167,10 @@
         <v>11</v>
       </c>
       <c r="F78" t="n">
-        <v>4.51500675513618</v>
+        <v>4.35735170057241</v>
       </c>
       <c r="G78" t="n">
-        <v>3.06593254187115</v>
+        <v>2.90276014960273</v>
       </c>
     </row>
     <row r="79">
@@ -2178,7 +2178,7 @@
         <v>7</v>
       </c>
       <c r="B79" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C79" t="n">
         <v>70</v>
@@ -2190,10 +2190,10 @@
         <v>11</v>
       </c>
       <c r="F79" t="n">
-        <v>4.42814661577224</v>
+        <v>4.18173141478315</v>
       </c>
       <c r="G79" t="n">
-        <v>3.00998268590349</v>
+        <v>2.836797949781</v>
       </c>
     </row>
     <row r="80">
@@ -2201,7 +2201,7 @@
         <v>7</v>
       </c>
       <c r="B80" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C80" t="n">
         <v>70</v>
@@ -2213,10 +2213,10 @@
         <v>11</v>
       </c>
       <c r="F80" t="n">
-        <v>4.28986112853437</v>
+        <v>4.28886764053923</v>
       </c>
       <c r="G80" t="n">
-        <v>3.07905599849594</v>
+        <v>2.90146374402366</v>
       </c>
     </row>
     <row r="81">
@@ -2224,7 +2224,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C81" t="n">
         <v>70</v>
@@ -2236,10 +2236,10 @@
         <v>11</v>
       </c>
       <c r="F81" t="n">
-        <v>4.33676423419684</v>
+        <v>4.32907860030173</v>
       </c>
       <c r="G81" t="n">
-        <v>2.96597728846624</v>
+        <v>2.80636746944727</v>
       </c>
     </row>
     <row r="82">
@@ -2247,10 +2247,10 @@
         <v>7</v>
       </c>
       <c r="B82" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C82" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -2259,10 +2259,10 @@
         <v>8</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9215</v>
+        <v>0.926</v>
       </c>
       <c r="G82" t="n">
-        <v>0.936</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="83">
@@ -2270,10 +2270,10 @@
         <v>7</v>
       </c>
       <c r="B83" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C83" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D83" t="n">
         <v>2</v>
@@ -2282,10 +2282,10 @@
         <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>0.918</v>
+        <v>0.923</v>
       </c>
       <c r="G83" t="n">
-        <v>0.93</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="84">
@@ -2293,10 +2293,10 @@
         <v>7</v>
       </c>
       <c r="B84" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C84" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D84" t="n">
         <v>3</v>
@@ -2305,10 +2305,10 @@
         <v>8</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9175</v>
+        <v>0.916</v>
       </c>
       <c r="G84" t="n">
-        <v>0.935</v>
+        <v>0.942</v>
       </c>
     </row>
     <row r="85">
@@ -2316,10 +2316,10 @@
         <v>7</v>
       </c>
       <c r="B85" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C85" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D85" t="n">
         <v>4</v>
@@ -2328,10 +2328,10 @@
         <v>8</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9075</v>
+        <v>0.919</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9305</v>
+        <v>0.9435</v>
       </c>
     </row>
     <row r="86">
@@ -2339,10 +2339,10 @@
         <v>7</v>
       </c>
       <c r="B86" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C86" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D86" t="n">
         <v>5</v>
@@ -2351,10 +2351,10 @@
         <v>8</v>
       </c>
       <c r="F86" t="n">
-        <v>0.8955</v>
+        <v>0.915</v>
       </c>
       <c r="G86" t="n">
-        <v>0.915</v>
+        <v>0.9445</v>
       </c>
     </row>
     <row r="87">
@@ -2362,10 +2362,10 @@
         <v>7</v>
       </c>
       <c r="B87" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C87" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D87" t="n">
         <v>6</v>
@@ -2374,10 +2374,10 @@
         <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9065</v>
+        <v>0.913</v>
       </c>
       <c r="G87" t="n">
-        <v>0.931</v>
+        <v>0.941</v>
       </c>
     </row>
     <row r="88">
@@ -2385,10 +2385,10 @@
         <v>7</v>
       </c>
       <c r="B88" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C88" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D88" t="n">
         <v>7</v>
@@ -2397,10 +2397,10 @@
         <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>0.895</v>
+        <v>0.9165</v>
       </c>
       <c r="G88" t="n">
-        <v>0.913</v>
+        <v>0.941</v>
       </c>
     </row>
     <row r="89">
@@ -2408,10 +2408,10 @@
         <v>7</v>
       </c>
       <c r="B89" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C89" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D89" t="n">
         <v>8</v>
@@ -2420,10 +2420,10 @@
         <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>0.894</v>
+        <v>0.916</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9155</v>
+        <v>0.941</v>
       </c>
     </row>
     <row r="90">
@@ -2431,10 +2431,10 @@
         <v>7</v>
       </c>
       <c r="B90" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C90" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D90" t="n">
         <v>9</v>
@@ -2443,10 +2443,10 @@
         <v>8</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8955</v>
+        <v>0.923</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9225</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="91">
@@ -2454,10 +2454,10 @@
         <v>7</v>
       </c>
       <c r="B91" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C91" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D91" t="n">
         <v>10</v>
@@ -2466,10 +2466,10 @@
         <v>8</v>
       </c>
       <c r="F91" t="n">
-        <v>0.91</v>
+        <v>0.919</v>
       </c>
       <c r="G91" t="n">
-        <v>0.931</v>
+        <v>0.9415</v>
       </c>
     </row>
     <row r="92">
@@ -2477,10 +2477,10 @@
         <v>7</v>
       </c>
       <c r="B92" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C92" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -2489,10 +2489,10 @@
         <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>26.5875791100696</v>
+        <v>27.3457850359664</v>
       </c>
       <c r="G92" t="n">
-        <v>26.5466609444065</v>
+        <v>26.3332355334305</v>
       </c>
     </row>
     <row r="93">
@@ -2500,10 +2500,10 @@
         <v>7</v>
       </c>
       <c r="B93" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C93" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
@@ -2512,10 +2512,10 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>26.9461519005013</v>
+        <v>27.7807197935849</v>
       </c>
       <c r="G93" t="n">
-        <v>27.2223507532685</v>
+        <v>26.931938671629</v>
       </c>
     </row>
     <row r="94">
@@ -2523,10 +2523,10 @@
         <v>7</v>
       </c>
       <c r="B94" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C94" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D94" t="n">
         <v>3</v>
@@ -2535,10 +2535,10 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>27.2594316686827</v>
+        <v>27.3716925300232</v>
       </c>
       <c r="G94" t="n">
-        <v>27.4612634731239</v>
+        <v>26.8634588171029</v>
       </c>
     </row>
     <row r="95">
@@ -2546,10 +2546,10 @@
         <v>7</v>
       </c>
       <c r="B95" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C95" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D95" t="n">
         <v>4</v>
@@ -2558,10 +2558,10 @@
         <v>9</v>
       </c>
       <c r="F95" t="n">
-        <v>27.2738426098123</v>
+        <v>27.7963506439125</v>
       </c>
       <c r="G95" t="n">
-        <v>27.3866733711779</v>
+        <v>27.0094128311159</v>
       </c>
     </row>
     <row r="96">
@@ -2569,10 +2569,10 @@
         <v>7</v>
       </c>
       <c r="B96" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C96" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D96" t="n">
         <v>5</v>
@@ -2581,10 +2581,10 @@
         <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>27.4175053718953</v>
+        <v>27.861254422386</v>
       </c>
       <c r="G96" t="n">
-        <v>27.4989084739291</v>
+        <v>26.9947769541106</v>
       </c>
     </row>
     <row r="97">
@@ -2592,10 +2592,10 @@
         <v>7</v>
       </c>
       <c r="B97" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C97" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D97" t="n">
         <v>6</v>
@@ -2604,10 +2604,10 @@
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>27.2451792851953</v>
+        <v>27.6431521270331</v>
       </c>
       <c r="G97" t="n">
-        <v>27.4456300761275</v>
+        <v>27.1019950153506</v>
       </c>
     </row>
     <row r="98">
@@ -2615,10 +2615,10 @@
         <v>7</v>
       </c>
       <c r="B98" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C98" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D98" t="n">
         <v>7</v>
@@ -2627,10 +2627,10 @@
         <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>27.2143335816923</v>
+        <v>27.6015939335411</v>
       </c>
       <c r="G98" t="n">
-        <v>27.5387094660287</v>
+        <v>26.9493872016091</v>
       </c>
     </row>
     <row r="99">
@@ -2638,10 +2638,10 @@
         <v>7</v>
       </c>
       <c r="B99" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C99" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D99" t="n">
         <v>8</v>
@@ -2650,10 +2650,10 @@
         <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>27.2416926330227</v>
+        <v>27.6895189351399</v>
       </c>
       <c r="G99" t="n">
-        <v>27.4126785057399</v>
+        <v>26.9078125568722</v>
       </c>
     </row>
     <row r="100">
@@ -2661,10 +2661,10 @@
         <v>7</v>
       </c>
       <c r="B100" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C100" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D100" t="n">
         <v>9</v>
@@ -2673,10 +2673,10 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>27.4035290326466</v>
+        <v>27.7767788729819</v>
       </c>
       <c r="G100" t="n">
-        <v>27.5332711981919</v>
+        <v>27.2455083244587</v>
       </c>
     </row>
     <row r="101">
@@ -2684,10 +2684,10 @@
         <v>7</v>
       </c>
       <c r="B101" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C101" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D101" t="n">
         <v>10</v>
@@ -2696,10 +2696,10 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>27.3703279772035</v>
+        <v>27.8945440957774</v>
       </c>
       <c r="G101" t="n">
-        <v>27.7876167653705</v>
+        <v>27.2618629793948</v>
       </c>
     </row>
     <row r="102">
@@ -2707,10 +2707,10 @@
         <v>7</v>
       </c>
       <c r="B102" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C102" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
@@ -2719,10 +2719,10 @@
         <v>10</v>
       </c>
       <c r="F102" t="n">
-        <v>40.9255038814576</v>
+        <v>43.0026650180988</v>
       </c>
       <c r="G102" t="n">
-        <v>29.7715626682769</v>
+        <v>27.1913849073891</v>
       </c>
     </row>
     <row r="103">
@@ -2730,10 +2730,10 @@
         <v>7</v>
       </c>
       <c r="B103" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C103" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
@@ -2742,10 +2742,10 @@
         <v>10</v>
       </c>
       <c r="F103" t="n">
-        <v>48.4218037719489</v>
+        <v>49.7151810058772</v>
       </c>
       <c r="G103" t="n">
-        <v>35.7949992597305</v>
+        <v>30.6090230288373</v>
       </c>
     </row>
     <row r="104">
@@ -2753,10 +2753,10 @@
         <v>7</v>
       </c>
       <c r="B104" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C104" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D104" t="n">
         <v>3</v>
@@ -2765,10 +2765,10 @@
         <v>10</v>
       </c>
       <c r="F104" t="n">
-        <v>50.6306522966136</v>
+        <v>49.8720369602948</v>
       </c>
       <c r="G104" t="n">
-        <v>37.3629528063696</v>
+        <v>32.1345472930544</v>
       </c>
     </row>
     <row r="105">
@@ -2776,10 +2776,10 @@
         <v>7</v>
       </c>
       <c r="B105" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C105" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D105" t="n">
         <v>4</v>
@@ -2788,10 +2788,10 @@
         <v>10</v>
       </c>
       <c r="F105" t="n">
-        <v>53.5945160082019</v>
+        <v>51.891591620725</v>
       </c>
       <c r="G105" t="n">
-        <v>39.0820828532485</v>
+        <v>33.2065716425575</v>
       </c>
     </row>
     <row r="106">
@@ -2799,10 +2799,10 @@
         <v>7</v>
       </c>
       <c r="B106" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C106" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D106" t="n">
         <v>5</v>
@@ -2811,10 +2811,10 @@
         <v>10</v>
       </c>
       <c r="F106" t="n">
-        <v>55.3387751871621</v>
+        <v>53.5465925938446</v>
       </c>
       <c r="G106" t="n">
-        <v>41.1188803210414</v>
+        <v>34.2800176606588</v>
       </c>
     </row>
     <row r="107">
@@ -2822,10 +2822,10 @@
         <v>7</v>
       </c>
       <c r="B107" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C107" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D107" t="n">
         <v>6</v>
@@ -2834,10 +2834,10 @@
         <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>53.0700070400341</v>
+        <v>58.1336687377259</v>
       </c>
       <c r="G107" t="n">
-        <v>38.7778840908497</v>
+        <v>36.6457319254905</v>
       </c>
     </row>
     <row r="108">
@@ -2845,10 +2845,10 @@
         <v>7</v>
       </c>
       <c r="B108" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C108" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D108" t="n">
         <v>7</v>
@@ -2857,10 +2857,10 @@
         <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>56.839770563331</v>
+        <v>54.4772056316578</v>
       </c>
       <c r="G108" t="n">
-        <v>43.5690677972173</v>
+        <v>34.4701260830161</v>
       </c>
     </row>
     <row r="109">
@@ -2868,10 +2868,10 @@
         <v>7</v>
       </c>
       <c r="B109" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C109" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D109" t="n">
         <v>8</v>
@@ -2880,10 +2880,10 @@
         <v>10</v>
       </c>
       <c r="F109" t="n">
-        <v>58.1699843653861</v>
+        <v>54.7920656424435</v>
       </c>
       <c r="G109" t="n">
-        <v>42.1094372715495</v>
+        <v>36.3007392095109</v>
       </c>
     </row>
     <row r="110">
@@ -2891,10 +2891,10 @@
         <v>7</v>
       </c>
       <c r="B110" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C110" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D110" t="n">
         <v>9</v>
@@ -2903,10 +2903,10 @@
         <v>10</v>
       </c>
       <c r="F110" t="n">
-        <v>60.4523759650269</v>
+        <v>58.0950134533227</v>
       </c>
       <c r="G110" t="n">
-        <v>44.9103001986965</v>
+        <v>37.5293009338468</v>
       </c>
     </row>
     <row r="111">
@@ -2914,10 +2914,10 @@
         <v>7</v>
       </c>
       <c r="B111" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C111" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D111" t="n">
         <v>10</v>
@@ -2926,10 +2926,10 @@
         <v>10</v>
       </c>
       <c r="F111" t="n">
-        <v>58.7202342327593</v>
+        <v>56.2635608545576</v>
       </c>
       <c r="G111" t="n">
-        <v>43.6764666385152</v>
+        <v>37.5789745953516</v>
       </c>
     </row>
     <row r="112">
@@ -2937,10 +2937,10 @@
         <v>7</v>
       </c>
       <c r="B112" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C112" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -2949,10 +2949,10 @@
         <v>11</v>
       </c>
       <c r="F112" t="n">
-        <v>4.02348557319245</v>
+        <v>3.93385666148958</v>
       </c>
       <c r="G112" t="n">
-        <v>3.30269904443887</v>
+        <v>2.9829606600848</v>
       </c>
     </row>
     <row r="113">
@@ -2960,10 +2960,10 @@
         <v>7</v>
       </c>
       <c r="B113" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C113" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D113" t="n">
         <v>2</v>
@@ -2972,10 +2972,10 @@
         <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>4.39249919422357</v>
+        <v>4.51123928762267</v>
       </c>
       <c r="G113" t="n">
-        <v>3.52893831611786</v>
+        <v>3.13418207399988</v>
       </c>
     </row>
     <row r="114">
@@ -2983,10 +2983,10 @@
         <v>7</v>
       </c>
       <c r="B114" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C114" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D114" t="n">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>11</v>
       </c>
       <c r="F114" t="n">
-        <v>4.33715471676646</v>
+        <v>4.3770269417532</v>
       </c>
       <c r="G114" t="n">
-        <v>3.62421171816889</v>
+        <v>3.18394002666407</v>
       </c>
     </row>
     <row r="115">
@@ -3006,10 +3006,10 @@
         <v>7</v>
       </c>
       <c r="B115" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C115" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D115" t="n">
         <v>4</v>
@@ -3018,10 +3018,10 @@
         <v>11</v>
       </c>
       <c r="F115" t="n">
-        <v>4.63370587097636</v>
+        <v>4.30637532883</v>
       </c>
       <c r="G115" t="n">
-        <v>3.71067238229629</v>
+        <v>3.29885925593004</v>
       </c>
     </row>
     <row r="116">
@@ -3029,10 +3029,10 @@
         <v>7</v>
       </c>
       <c r="B116" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C116" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D116" t="n">
         <v>5</v>
@@ -3041,10 +3041,10 @@
         <v>11</v>
       </c>
       <c r="F116" t="n">
-        <v>4.67861187665809</v>
+        <v>4.47095364392354</v>
       </c>
       <c r="G116" t="n">
-        <v>3.62554443180461</v>
+        <v>3.43232358292662</v>
       </c>
     </row>
     <row r="117">
@@ -3052,10 +3052,10 @@
         <v>7</v>
       </c>
       <c r="B117" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C117" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D117" t="n">
         <v>6</v>
@@ -3064,10 +3064,10 @@
         <v>11</v>
       </c>
       <c r="F117" t="n">
-        <v>4.56791927258386</v>
+        <v>4.45548948816885</v>
       </c>
       <c r="G117" t="n">
-        <v>3.59807829868807</v>
+        <v>3.29652118506549</v>
       </c>
     </row>
     <row r="118">
@@ -3075,10 +3075,10 @@
         <v>7</v>
       </c>
       <c r="B118" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C118" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D118" t="n">
         <v>7</v>
@@ -3087,10 +3087,10 @@
         <v>11</v>
       </c>
       <c r="F118" t="n">
-        <v>4.6679837520947</v>
+        <v>4.53449401130332</v>
       </c>
       <c r="G118" t="n">
-        <v>3.67092391608665</v>
+        <v>3.29079669913884</v>
       </c>
     </row>
     <row r="119">
@@ -3098,10 +3098,10 @@
         <v>7</v>
       </c>
       <c r="B119" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C119" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D119" t="n">
         <v>8</v>
@@ -3110,10 +3110,10 @@
         <v>11</v>
       </c>
       <c r="F119" t="n">
-        <v>4.44027616393971</v>
+        <v>4.53932389486511</v>
       </c>
       <c r="G119" t="n">
-        <v>3.59873439144062</v>
+        <v>3.38052943311271</v>
       </c>
     </row>
     <row r="120">
@@ -3121,10 +3121,10 @@
         <v>7</v>
       </c>
       <c r="B120" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C120" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D120" t="n">
         <v>9</v>
@@ -3133,10 +3133,10 @@
         <v>11</v>
       </c>
       <c r="F120" t="n">
-        <v>4.71515159005967</v>
+        <v>4.52921040732746</v>
       </c>
       <c r="G120" t="n">
-        <v>3.63540822054308</v>
+        <v>3.20053049839534</v>
       </c>
     </row>
     <row r="121">
@@ -3144,10 +3144,10 @@
         <v>7</v>
       </c>
       <c r="B121" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C121" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D121" t="n">
         <v>10</v>
@@ -3156,10 +3156,10 @@
         <v>11</v>
       </c>
       <c r="F121" t="n">
-        <v>4.76486482015563</v>
+        <v>4.45520608213944</v>
       </c>
       <c r="G121" t="n">
-        <v>3.65937719068062</v>
+        <v>3.33171617246043</v>
       </c>
     </row>
     <row r="122">
@@ -3167,7 +3167,7 @@
         <v>7</v>
       </c>
       <c r="B122" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C122" t="n">
         <v>70</v>
@@ -3179,10 +3179,10 @@
         <v>8</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9455</v>
+        <v>0.9435</v>
       </c>
       <c r="G122" t="n">
-        <v>0.9655</v>
+        <v>0.9685</v>
       </c>
     </row>
     <row r="123">
@@ -3190,7 +3190,7 @@
         <v>7</v>
       </c>
       <c r="B123" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C123" t="n">
         <v>70</v>
@@ -3202,10 +3202,10 @@
         <v>8</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9295</v>
+        <v>0.939</v>
       </c>
       <c r="G123" t="n">
-        <v>0.955</v>
+        <v>0.963</v>
       </c>
     </row>
     <row r="124">
@@ -3213,7 +3213,7 @@
         <v>7</v>
       </c>
       <c r="B124" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C124" t="n">
         <v>70</v>
@@ -3225,10 +3225,10 @@
         <v>8</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9235</v>
+        <v>0.9305</v>
       </c>
       <c r="G124" t="n">
-        <v>0.954</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="125">
@@ -3236,7 +3236,7 @@
         <v>7</v>
       </c>
       <c r="B125" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C125" t="n">
         <v>70</v>
@@ -3248,10 +3248,10 @@
         <v>8</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9265</v>
+        <v>0.929</v>
       </c>
       <c r="G125" t="n">
-        <v>0.955</v>
+        <v>0.9515</v>
       </c>
     </row>
     <row r="126">
@@ -3259,7 +3259,7 @@
         <v>7</v>
       </c>
       <c r="B126" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C126" t="n">
         <v>70</v>
@@ -3271,10 +3271,10 @@
         <v>8</v>
       </c>
       <c r="F126" t="n">
-        <v>0.927</v>
+        <v>0.9235</v>
       </c>
       <c r="G126" t="n">
-        <v>0.945</v>
+        <v>0.9585</v>
       </c>
     </row>
     <row r="127">
@@ -3282,7 +3282,7 @@
         <v>7</v>
       </c>
       <c r="B127" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C127" t="n">
         <v>70</v>
@@ -3294,10 +3294,10 @@
         <v>8</v>
       </c>
       <c r="F127" t="n">
-        <v>0.924</v>
+        <v>0.927</v>
       </c>
       <c r="G127" t="n">
-        <v>0.9435</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="128">
@@ -3305,7 +3305,7 @@
         <v>7</v>
       </c>
       <c r="B128" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C128" t="n">
         <v>70</v>
@@ -3317,10 +3317,10 @@
         <v>8</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9325</v>
+        <v>0.9215</v>
       </c>
       <c r="G128" t="n">
-        <v>0.9565</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="129">
@@ -3328,7 +3328,7 @@
         <v>7</v>
       </c>
       <c r="B129" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C129" t="n">
         <v>70</v>
@@ -3340,10 +3340,10 @@
         <v>8</v>
       </c>
       <c r="F129" t="n">
-        <v>0.928</v>
+        <v>0.922</v>
       </c>
       <c r="G129" t="n">
-        <v>0.954</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="130">
@@ -3351,7 +3351,7 @@
         <v>7</v>
       </c>
       <c r="B130" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C130" t="n">
         <v>70</v>
@@ -3363,10 +3363,10 @@
         <v>8</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9175</v>
+        <v>0.9345</v>
       </c>
       <c r="G130" t="n">
-        <v>0.951</v>
+        <v>0.9555</v>
       </c>
     </row>
     <row r="131">
@@ -3374,7 +3374,7 @@
         <v>7</v>
       </c>
       <c r="B131" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C131" t="n">
         <v>70</v>
@@ -3386,10 +3386,10 @@
         <v>8</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9185</v>
+        <v>0.93</v>
       </c>
       <c r="G131" t="n">
-        <v>0.9475</v>
+        <v>0.9525</v>
       </c>
     </row>
     <row r="132">
@@ -3397,7 +3397,7 @@
         <v>7</v>
       </c>
       <c r="B132" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C132" t="n">
         <v>70</v>
@@ -3409,10 +3409,10 @@
         <v>9</v>
       </c>
       <c r="F132" t="n">
-        <v>26.2465025087268</v>
+        <v>26.2093792908159</v>
       </c>
       <c r="G132" t="n">
-        <v>24.9643802333108</v>
+        <v>24.7112373121912</v>
       </c>
     </row>
     <row r="133">
@@ -3420,7 +3420,7 @@
         <v>7</v>
       </c>
       <c r="B133" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C133" t="n">
         <v>70</v>
@@ -3432,10 +3432,10 @@
         <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>26.4421734795584</v>
+        <v>26.1939245079011</v>
       </c>
       <c r="G133" t="n">
-        <v>25.255264038452</v>
+        <v>24.7874088732941</v>
       </c>
     </row>
     <row r="134">
@@ -3443,7 +3443,7 @@
         <v>7</v>
       </c>
       <c r="B134" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C134" t="n">
         <v>70</v>
@@ -3455,10 +3455,10 @@
         <v>9</v>
       </c>
       <c r="F134" t="n">
-        <v>26.6236103661805</v>
+        <v>26.5030790507804</v>
       </c>
       <c r="G134" t="n">
-        <v>25.4627216346167</v>
+        <v>25.1617949242134</v>
       </c>
     </row>
     <row r="135">
@@ -3466,7 +3466,7 @@
         <v>7</v>
       </c>
       <c r="B135" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C135" t="n">
         <v>70</v>
@@ -3478,10 +3478,10 @@
         <v>9</v>
       </c>
       <c r="F135" t="n">
-        <v>26.6607984738485</v>
+        <v>26.5599995796788</v>
       </c>
       <c r="G135" t="n">
-        <v>25.5603966047597</v>
+        <v>25.4125328323533</v>
       </c>
     </row>
     <row r="136">
@@ -3489,7 +3489,7 @@
         <v>7</v>
       </c>
       <c r="B136" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C136" t="n">
         <v>70</v>
@@ -3501,10 +3501,10 @@
         <v>9</v>
       </c>
       <c r="F136" t="n">
-        <v>26.8750555829605</v>
+        <v>26.6685024875437</v>
       </c>
       <c r="G136" t="n">
-        <v>25.72807717151</v>
+        <v>25.294656299917</v>
       </c>
     </row>
     <row r="137">
@@ -3512,7 +3512,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C137" t="n">
         <v>70</v>
@@ -3524,10 +3524,10 @@
         <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>26.5884824833378</v>
+        <v>26.8518256654585</v>
       </c>
       <c r="G137" t="n">
-        <v>25.4048798624339</v>
+        <v>25.4224902070832</v>
       </c>
     </row>
     <row r="138">
@@ -3535,7 +3535,7 @@
         <v>7</v>
       </c>
       <c r="B138" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C138" t="n">
         <v>70</v>
@@ -3547,10 +3547,10 @@
         <v>9</v>
       </c>
       <c r="F138" t="n">
-        <v>26.8243379844895</v>
+        <v>26.4491155353904</v>
       </c>
       <c r="G138" t="n">
-        <v>25.6922972418047</v>
+        <v>25.2799018057492</v>
       </c>
     </row>
     <row r="139">
@@ -3558,7 +3558,7 @@
         <v>7</v>
       </c>
       <c r="B139" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C139" t="n">
         <v>70</v>
@@ -3570,10 +3570,10 @@
         <v>9</v>
       </c>
       <c r="F139" t="n">
-        <v>26.8379619116454</v>
+        <v>26.7370700411527</v>
       </c>
       <c r="G139" t="n">
-        <v>25.7330674848691</v>
+        <v>25.4033595419964</v>
       </c>
     </row>
     <row r="140">
@@ -3581,7 +3581,7 @@
         <v>7</v>
       </c>
       <c r="B140" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C140" t="n">
         <v>70</v>
@@ -3593,10 +3593,10 @@
         <v>9</v>
       </c>
       <c r="F140" t="n">
-        <v>26.8301009220147</v>
+        <v>27.0009648790587</v>
       </c>
       <c r="G140" t="n">
-        <v>26.0915741055721</v>
+        <v>25.514072529916</v>
       </c>
     </row>
     <row r="141">
@@ -3604,7 +3604,7 @@
         <v>7</v>
       </c>
       <c r="B141" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C141" t="n">
         <v>70</v>
@@ -3616,10 +3616,10 @@
         <v>9</v>
       </c>
       <c r="F141" t="n">
-        <v>26.8745333236306</v>
+        <v>26.8801423581725</v>
       </c>
       <c r="G141" t="n">
-        <v>25.6870101658709</v>
+        <v>25.4596535932059</v>
       </c>
     </row>
     <row r="142">
@@ -3627,7 +3627,7 @@
         <v>7</v>
       </c>
       <c r="B142" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C142" t="n">
         <v>70</v>
@@ -3639,10 +3639,10 @@
         <v>10</v>
       </c>
       <c r="F142" t="n">
-        <v>38.2605292626067</v>
+        <v>39.3517323451613</v>
       </c>
       <c r="G142" t="n">
-        <v>23.4975052380863</v>
+        <v>22.0489486437385</v>
       </c>
     </row>
     <row r="143">
@@ -3650,7 +3650,7 @@
         <v>7</v>
       </c>
       <c r="B143" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C143" t="n">
         <v>70</v>
@@ -3662,10 +3662,10 @@
         <v>10</v>
       </c>
       <c r="F143" t="n">
-        <v>44.0266751931565</v>
+        <v>42.1603456037931</v>
       </c>
       <c r="G143" t="n">
-        <v>26.8652902681472</v>
+        <v>24.1803441753188</v>
       </c>
     </row>
     <row r="144">
@@ -3673,7 +3673,7 @@
         <v>7</v>
       </c>
       <c r="B144" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C144" t="n">
         <v>70</v>
@@ -3685,10 +3685,10 @@
         <v>10</v>
       </c>
       <c r="F144" t="n">
-        <v>44.5160255206092</v>
+        <v>44.2209610759186</v>
       </c>
       <c r="G144" t="n">
-        <v>26.9490833356381</v>
+        <v>25.9177071351013</v>
       </c>
     </row>
     <row r="145">
@@ -3696,7 +3696,7 @@
         <v>7</v>
       </c>
       <c r="B145" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C145" t="n">
         <v>70</v>
@@ -3708,10 +3708,10 @@
         <v>10</v>
       </c>
       <c r="F145" t="n">
-        <v>45.8005440639483</v>
+        <v>45.0485051795388</v>
       </c>
       <c r="G145" t="n">
-        <v>27.6964191284635</v>
+        <v>27.4310031376538</v>
       </c>
     </row>
     <row r="146">
@@ -3719,7 +3719,7 @@
         <v>7</v>
       </c>
       <c r="B146" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C146" t="n">
         <v>70</v>
@@ -3731,10 +3731,10 @@
         <v>10</v>
       </c>
       <c r="F146" t="n">
-        <v>50.0422679410308</v>
+        <v>47.3844891764351</v>
       </c>
       <c r="G146" t="n">
-        <v>30.650972848049</v>
+        <v>27.4687596088218</v>
       </c>
     </row>
     <row r="147">
@@ -3742,7 +3742,7 @@
         <v>7</v>
       </c>
       <c r="B147" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C147" t="n">
         <v>70</v>
@@ -3754,10 +3754,10 @@
         <v>10</v>
       </c>
       <c r="F147" t="n">
-        <v>48.4656608730031</v>
+        <v>47.3030190112126</v>
       </c>
       <c r="G147" t="n">
-        <v>30.6281198130218</v>
+        <v>26.4044513251557</v>
       </c>
     </row>
     <row r="148">
@@ -3765,7 +3765,7 @@
         <v>7</v>
       </c>
       <c r="B148" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C148" t="n">
         <v>70</v>
@@ -3777,10 +3777,10 @@
         <v>10</v>
       </c>
       <c r="F148" t="n">
-        <v>48.9401494157153</v>
+        <v>48.0665255919984</v>
       </c>
       <c r="G148" t="n">
-        <v>29.8838055795369</v>
+        <v>27.6974167861469</v>
       </c>
     </row>
     <row r="149">
@@ -3788,7 +3788,7 @@
         <v>7</v>
       </c>
       <c r="B149" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C149" t="n">
         <v>70</v>
@@ -3800,10 +3800,10 @@
         <v>10</v>
       </c>
       <c r="F149" t="n">
-        <v>49.727349524978</v>
+        <v>48.6255089271947</v>
       </c>
       <c r="G149" t="n">
-        <v>29.3666815769615</v>
+        <v>28.0973804551725</v>
       </c>
     </row>
     <row r="150">
@@ -3811,7 +3811,7 @@
         <v>7</v>
       </c>
       <c r="B150" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C150" t="n">
         <v>70</v>
@@ -3823,10 +3823,10 @@
         <v>10</v>
       </c>
       <c r="F150" t="n">
-        <v>50.4562942340864</v>
+        <v>47.5497608770814</v>
       </c>
       <c r="G150" t="n">
-        <v>30.6658036183616</v>
+        <v>27.3765958546362</v>
       </c>
     </row>
     <row r="151">
@@ -3834,7 +3834,7 @@
         <v>7</v>
       </c>
       <c r="B151" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C151" t="n">
         <v>70</v>
@@ -3846,10 +3846,10 @@
         <v>10</v>
       </c>
       <c r="F151" t="n">
-        <v>47.5235194449148</v>
+        <v>49.7209517103999</v>
       </c>
       <c r="G151" t="n">
-        <v>29.2629491090292</v>
+        <v>28.5723229746208</v>
       </c>
     </row>
     <row r="152">
@@ -3857,7 +3857,7 @@
         <v>7</v>
       </c>
       <c r="B152" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C152" t="n">
         <v>70</v>
@@ -3869,10 +3869,10 @@
         <v>11</v>
       </c>
       <c r="F152" t="n">
-        <v>3.97765136099134</v>
+        <v>4.12511270203036</v>
       </c>
       <c r="G152" t="n">
-        <v>2.91201871401445</v>
+        <v>2.86024003606599</v>
       </c>
     </row>
     <row r="153">
@@ -3880,7 +3880,7 @@
         <v>7</v>
       </c>
       <c r="B153" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C153" t="n">
         <v>70</v>
@@ -3892,10 +3892,10 @@
         <v>11</v>
       </c>
       <c r="F153" t="n">
-        <v>4.16892571973</v>
+        <v>4.36407662870968</v>
       </c>
       <c r="G153" t="n">
-        <v>2.97554913803267</v>
+        <v>2.89616137957099</v>
       </c>
     </row>
     <row r="154">
@@ -3903,7 +3903,7 @@
         <v>7</v>
       </c>
       <c r="B154" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C154" t="n">
         <v>70</v>
@@ -3915,10 +3915,10 @@
         <v>11</v>
       </c>
       <c r="F154" t="n">
-        <v>4.40915138884532</v>
+        <v>4.34127124495691</v>
       </c>
       <c r="G154" t="n">
-        <v>3.1221396160861</v>
+        <v>2.99584067835404</v>
       </c>
     </row>
     <row r="155">
@@ -3926,7 +3926,7 @@
         <v>7</v>
       </c>
       <c r="B155" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C155" t="n">
         <v>70</v>
@@ -3938,10 +3938,10 @@
         <v>11</v>
       </c>
       <c r="F155" t="n">
-        <v>4.20733401477601</v>
+        <v>4.11619104904839</v>
       </c>
       <c r="G155" t="n">
-        <v>2.93568846421433</v>
+        <v>2.99852445641695</v>
       </c>
     </row>
     <row r="156">
@@ -3949,7 +3949,7 @@
         <v>7</v>
       </c>
       <c r="B156" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C156" t="n">
         <v>70</v>
@@ -3961,10 +3961,10 @@
         <v>11</v>
       </c>
       <c r="F156" t="n">
-        <v>4.19808532873705</v>
+        <v>4.34316957564878</v>
       </c>
       <c r="G156" t="n">
-        <v>3.00001037397645</v>
+        <v>3.02941836289645</v>
       </c>
     </row>
     <row r="157">
@@ -3972,7 +3972,7 @@
         <v>7</v>
       </c>
       <c r="B157" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C157" t="n">
         <v>70</v>
@@ -3984,10 +3984,10 @@
         <v>11</v>
       </c>
       <c r="F157" t="n">
-        <v>4.48372355077062</v>
+        <v>4.20866809335144</v>
       </c>
       <c r="G157" t="n">
-        <v>3.12765217603072</v>
+        <v>2.78104141366225</v>
       </c>
     </row>
     <row r="158">
@@ -3995,7 +3995,7 @@
         <v>7</v>
       </c>
       <c r="B158" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C158" t="n">
         <v>70</v>
@@ -4007,10 +4007,10 @@
         <v>11</v>
       </c>
       <c r="F158" t="n">
-        <v>4.31461534669306</v>
+        <v>4.38954076394333</v>
       </c>
       <c r="G158" t="n">
-        <v>3.11065404026113</v>
+        <v>3.11416730424284</v>
       </c>
     </row>
     <row r="159">
@@ -4018,7 +4018,7 @@
         <v>7</v>
       </c>
       <c r="B159" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C159" t="n">
         <v>70</v>
@@ -4030,10 +4030,10 @@
         <v>11</v>
       </c>
       <c r="F159" t="n">
-        <v>4.42973378945655</v>
+        <v>4.39027572130723</v>
       </c>
       <c r="G159" t="n">
-        <v>3.06786382706362</v>
+        <v>3.03783773129174</v>
       </c>
     </row>
     <row r="160">
@@ -4041,7 +4041,7 @@
         <v>7</v>
       </c>
       <c r="B160" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C160" t="n">
         <v>70</v>
@@ -4053,10 +4053,10 @@
         <v>11</v>
       </c>
       <c r="F160" t="n">
-        <v>4.37594092094739</v>
+        <v>4.42330974859706</v>
       </c>
       <c r="G160" t="n">
-        <v>2.92368947427026</v>
+        <v>2.96122395906214</v>
       </c>
     </row>
     <row r="161">
@@ -4064,7 +4064,7 @@
         <v>7</v>
       </c>
       <c r="B161" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C161" t="n">
         <v>70</v>
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="F161" t="n">
-        <v>4.35749392521146</v>
+        <v>4.43625771352021</v>
       </c>
       <c r="G161" t="n">
-        <v>3.13478149931216</v>
+        <v>3.02336899993626</v>
       </c>
     </row>
   </sheetData>
